--- a/第12天作业/testdata.xlsx
+++ b/第12天作业/testdata.xlsx
@@ -436,52 +436,52 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>2020-07</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2020-08</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>2020-09</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>2020-10</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>2020-11</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>2020-12</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2021-01</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2021-04</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -616,37 +616,39 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>102900005117056</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>102900005117056</v>
+      </c>
+      <c r="F2" t="n">
         <v>9458.826000000039</v>
       </c>
-      <c r="C2" t="n">
-        <v>14888.31450000019</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>10723.42600000005</v>
       </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
         <v>11319.98500000013</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>8650.061800000005</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>10731.59020000007</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>21532.93040000011</v>
       </c>
-      <c r="I2" t="n">
-        <v>8261.400000000025</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -677,40 +679,38 @@
       <c r="AK2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>102900005115960</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>102900005115960</v>
+      </c>
+      <c r="F3" t="n">
         <v>1841.383799999998</v>
       </c>
-      <c r="C3" t="n">
-        <v>2239.8122</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="G3" t="n">
         <v>2565.352199999996</v>
       </c>
-      <c r="E3" t="n">
+      <c r="H3" t="n">
         <v>3947.901600000013</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>3359.601199999988</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>3766.41679999999</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>5308.95620000003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3384.161600000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2674.671399999995</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1930.667999999997</v>
       </c>
       <c r="L3" t="n">
         <v>1233.702400000002</v>
@@ -764,40 +764,38 @@
       <c r="AK3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>102900005115823</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>102900005115823</v>
+      </c>
+      <c r="F4" t="n">
         <v>4284.548600000004</v>
       </c>
-      <c r="C4" t="n">
-        <v>6161.667400000034</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="G4" t="n">
         <v>4552.750199999992</v>
       </c>
-      <c r="E4" t="n">
+      <c r="H4" t="n">
         <v>2186.497999999998</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>881.3059999999997</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>798.1379999999997</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>2310.423999999999</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3124.531799999992</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2361.053999999997</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2434.855999999996</v>
       </c>
       <c r="L4" t="n">
         <v>1267.701</v>
@@ -877,40 +875,38 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>102900005115908</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>102900005115908</v>
+      </c>
+      <c r="F5" t="n">
         <v>3293.765899999993</v>
       </c>
-      <c r="C5" t="n">
-        <v>4224.777999999994</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
         <v>2983.909999999996</v>
       </c>
-      <c r="E5" t="n">
+      <c r="H5" t="n">
         <v>1794.2946</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>1069.972999999999</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>663.7021999999999</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>969.8319999999995</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1207.273999999998</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1200.051999999999</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1232.377999999998</v>
       </c>
       <c r="L5" t="n">
         <v>931.3119999999977</v>
@@ -988,40 +984,38 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>102900005115779</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>102900005115779</v>
+      </c>
+      <c r="F6" t="n">
         <v>9227.265900000053</v>
       </c>
-      <c r="C6" t="n">
-        <v>8379.836800000059</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="G6" t="n">
         <v>7415.879600000028</v>
       </c>
-      <c r="E6" t="n">
+      <c r="H6" t="n">
         <v>6436.353200000021</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>3186.481999999998</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>2956.382999999998</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>4233.271999999988</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4959.424000000005</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4026.544999999996</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3943.958000000006</v>
       </c>
       <c r="L6" t="n">
         <v>3576.228000000001</v>
@@ -1101,35 +1095,39 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>102900011008522</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>102900011008522</v>
+      </c>
+      <c r="F7" t="n">
         <v>5308.223800000001</v>
       </c>
-      <c r="C7" t="n">
-        <v>4183.294599999995</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="G7" t="n">
         <v>4632.849999999999</v>
       </c>
-      <c r="E7" t="n">
+      <c r="H7" t="n">
         <v>3530.339999999998</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>1314.748</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>701.0289999999995</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>200.461</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
@@ -1174,37 +1172,35 @@
       <c r="AK7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>102900005118824</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>102900005118824</v>
+      </c>
+      <c r="F8" t="n">
         <v>849.4317999999997</v>
       </c>
-      <c r="C8" t="n">
-        <v>527.2900000000002</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="G8" t="n">
         <v>517.3239999999998</v>
       </c>
-      <c r="E8" t="n">
+      <c r="H8" t="n">
         <v>208.764</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>56.004</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>121.2124</v>
-      </c>
-      <c r="J8" t="n">
-        <v>263.2605999999999</v>
-      </c>
-      <c r="K8" t="n">
-        <v>569.8240000000001</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>778.0760000000002</v>
       </c>
@@ -1267,40 +1263,38 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>102900005115984</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>102900005115984</v>
+      </c>
+      <c r="F9" t="n">
         <v>6011.801700000025</v>
       </c>
-      <c r="C9" t="n">
-        <v>6442.349000000005</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="G9" t="n">
         <v>2912.067200000005</v>
       </c>
-      <c r="E9" t="n">
+      <c r="H9" t="n">
         <v>3011.943999999999</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>1793.676199999999</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>1911.172399999999</v>
       </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
         <v>3693.107000000006</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4917.441000000014</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3909.579799999995</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2344.2266</v>
       </c>
       <c r="L9" t="n">
         <v>2539.490000000001</v>
@@ -1374,40 +1368,38 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>102900005116530</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>102900005116530</v>
+      </c>
+      <c r="F10" t="n">
         <v>9005.542900000011</v>
       </c>
-      <c r="C10" t="n">
-        <v>8312.077299999997</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="G10" t="n">
         <v>7751.053399999986</v>
       </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
         <v>11196.75760000003</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>5596.945400000022</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
         <v>13095.33020000006</v>
       </c>
-      <c r="H10" t="n">
+      <c r="K10" t="n">
         <v>10170.7736</v>
-      </c>
-      <c r="I10" t="n">
-        <v>797.2069999999998</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6595.800400000001</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5319.419999999992</v>
       </c>
       <c r="L10" t="n">
         <v>5247.298000000003</v>
@@ -1483,40 +1475,38 @@
       <c r="AK10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>102900005116226</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>102900005116226</v>
+      </c>
+      <c r="F11" t="n">
         <v>771.5789000000003</v>
       </c>
-      <c r="C11" t="n">
-        <v>731.5143999999997</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="G11" t="n">
         <v>701.4119999999999</v>
       </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
         <v>505.2260000000001</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>474.0490000000001</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
         <v>588.9361999999999</v>
       </c>
-      <c r="H11" t="n">
+      <c r="K11" t="n">
         <v>1289.504399999999</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1498.454399999999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>700.0819999999998</v>
-      </c>
-      <c r="K11" t="n">
-        <v>626.5480000000002</v>
       </c>
       <c r="L11" t="n">
         <v>522.0030000000002</v>
@@ -1578,40 +1568,38 @@
       <c r="AK11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>102900005116233</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>102900005116233</v>
+      </c>
+      <c r="F12" t="n">
         <v>1487.624799999998</v>
       </c>
-      <c r="C12" t="n">
-        <v>1366.3679</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="G12" t="n">
         <v>1843.732199999999</v>
       </c>
-      <c r="E12" t="n">
+      <c r="H12" t="n">
         <v>1588.217</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>1474.183999999999</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
         <v>1587.023999999999</v>
       </c>
-      <c r="H12" t="n">
+      <c r="K12" t="n">
         <v>1835.787599999999</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14059.88779999999</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2439.771199999999</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1235.199999999999</v>
       </c>
       <c r="L12" t="n">
         <v>1456.091999999996</v>
@@ -1679,34 +1667,32 @@
       <c r="AK12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>102900005115762</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>102900005115762</v>
+      </c>
+      <c r="F13" t="n">
         <v>848.5699999999999</v>
       </c>
-      <c r="C13" t="n">
-        <v>1439.813199999997</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="G13" t="n">
         <v>713.3829999999989</v>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
         <v>195.848</v>
-      </c>
-      <c r="I13" t="n">
-        <v>441.5759999999999</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1396.897</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2007.242199999999</v>
       </c>
       <c r="L13" t="n">
         <v>1675.055399999997</v>
@@ -1776,40 +1762,38 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>102900005116714</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>102900005116714</v>
+      </c>
+      <c r="F14" t="n">
         <v>11541.45620000007</v>
       </c>
-      <c r="C14" t="n">
-        <v>11361.97510000008</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="G14" t="n">
         <v>9684.458800000006</v>
       </c>
-      <c r="E14" t="n">
+      <c r="H14" t="n">
         <v>10800.83100000004</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
         <v>8247.763599999962</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
         <v>5495.931000000007</v>
       </c>
-      <c r="H14" t="n">
+      <c r="K14" t="n">
         <v>7262.732200000015</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7268.118800000005</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5477.808400000023</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5537.622799999997</v>
       </c>
       <c r="L14" t="n">
         <v>4803.896999999999</v>
@@ -1891,40 +1875,38 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>102900005118817</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>102900005118817</v>
+      </c>
+      <c r="F15" t="n">
         <v>76.608</v>
       </c>
-      <c r="C15" t="n">
-        <v>460.5800000000001</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="G15" t="n">
         <v>745.8959999999996</v>
       </c>
-      <c r="E15" t="n">
+      <c r="H15" t="n">
         <v>5197.143000000015</v>
       </c>
-      <c r="F15" t="n">
+      <c r="I15" t="n">
         <v>2228.096199999995</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
         <v>1752.354999999997</v>
       </c>
-      <c r="H15" t="n">
+      <c r="K15" t="n">
         <v>2101.962999999998</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1521.456999999998</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1014.706999999998</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1243.370999999998</v>
       </c>
       <c r="L15" t="n">
         <v>1104.521</v>
@@ -2000,40 +1982,38 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>102900011009970</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>102900011009970</v>
+      </c>
+      <c r="F16" t="n">
         <v>5017.882400000013</v>
       </c>
-      <c r="C16" t="n">
-        <v>6862.603000000017</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="G16" t="n">
         <v>4664.741000000001</v>
       </c>
-      <c r="E16" t="n">
+      <c r="H16" t="n">
         <v>4726.419000000005</v>
       </c>
-      <c r="F16" t="n">
+      <c r="I16" t="n">
         <v>2427.617000000009</v>
       </c>
-      <c r="G16" t="n">
+      <c r="J16" t="n">
         <v>3351.249600000007</v>
       </c>
-      <c r="H16" t="n">
+      <c r="K16" t="n">
         <v>6514.080000000016</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4537.696000000003</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4380.151200000003</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2748.268999999982</v>
       </c>
       <c r="L16" t="n">
         <v>2257.936600000003</v>
@@ -2095,40 +2075,38 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>102900005117209</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>102900005117209</v>
+      </c>
+      <c r="F17" t="n">
         <v>563.3690000000004</v>
       </c>
-      <c r="C17" t="n">
-        <v>242.5798000000001</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="G17" t="n">
         <v>275.2688000000001</v>
       </c>
-      <c r="E17" t="n">
+      <c r="H17" t="n">
         <v>323.1665999999999</v>
       </c>
-      <c r="F17" t="n">
+      <c r="I17" t="n">
         <v>298.0364000000001</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
         <v>454.1680000000001</v>
       </c>
-      <c r="H17" t="n">
+      <c r="K17" t="n">
         <v>550.5443999999999</v>
-      </c>
-      <c r="I17" t="n">
-        <v>366.2724000000001</v>
-      </c>
-      <c r="J17" t="n">
-        <v>48.20739999999999</v>
-      </c>
-      <c r="K17" t="n">
-        <v>9.702</v>
       </c>
       <c r="L17" t="n">
         <v>30.6002</v>
@@ -2184,39 +2162,39 @@
       <c r="AK17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>102900011001219</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>102900011001219</v>
+      </c>
+      <c r="F18" t="n">
         <v>692.1130999999998</v>
       </c>
-      <c r="C18" t="n">
-        <v>410.2840000000002</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="G18" t="n">
         <v>335.2739999999999</v>
       </c>
-      <c r="E18" t="n">
+      <c r="H18" t="n">
         <v>433.7943999999999</v>
       </c>
-      <c r="F18" t="n">
+      <c r="I18" t="n">
         <v>395.9964000000002</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
         <v>487.076</v>
       </c>
-      <c r="H18" t="n">
+      <c r="K18" t="n">
         <v>528.8873999999997</v>
       </c>
-      <c r="I18" t="n">
-        <v>313.9002</v>
-      </c>
-      <c r="J18" t="n">
-        <v>30.29560000000001</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>8.608000000000001</v>
       </c>
@@ -2275,40 +2253,38 @@
       <c r="AK18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>102900051004294</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>102900051004294</v>
+      </c>
+      <c r="F19" t="n">
         <v>1822.438799999996</v>
       </c>
-      <c r="C19" t="n">
-        <v>1305.793699999997</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="G19" t="n">
         <v>1199.921199999999</v>
       </c>
-      <c r="E19" t="n">
+      <c r="H19" t="n">
         <v>1532.998999999999</v>
       </c>
-      <c r="F19" t="n">
+      <c r="I19" t="n">
         <v>1272.432</v>
       </c>
-      <c r="G19" t="n">
+      <c r="J19" t="n">
         <v>1462.099200000001</v>
       </c>
-      <c r="H19" t="n">
+      <c r="K19" t="n">
         <v>2631.622399999997</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3859.774399999998</v>
-      </c>
-      <c r="J19" t="n">
-        <v>880.2419999999989</v>
-      </c>
-      <c r="K19" t="n">
-        <v>944.3529999999992</v>
       </c>
       <c r="L19" t="n">
         <v>1474.409999999998</v>
@@ -2372,40 +2348,38 @@
       <c r="AK19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>102900005116547</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>102900005116547</v>
+      </c>
+      <c r="F20" t="n">
         <v>3973.690600000002</v>
       </c>
-      <c r="C20" t="n">
-        <v>3943.300000000015</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="G20" t="n">
         <v>2858.305999999994</v>
       </c>
-      <c r="E20" t="n">
+      <c r="H20" t="n">
         <v>3892.799999999997</v>
       </c>
-      <c r="F20" t="n">
+      <c r="I20" t="n">
         <v>2252.709999999999</v>
       </c>
-      <c r="G20" t="n">
+      <c r="J20" t="n">
         <v>3055.618000000012</v>
       </c>
-      <c r="H20" t="n">
+      <c r="K20" t="n">
         <v>2941.337</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3703.149000000005</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1496.426999999997</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1244.304999999996</v>
       </c>
       <c r="L20" t="n">
         <v>1047.562999999996</v>
@@ -2455,23 +2429,27 @@
       <c r="AK20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>102900051000944</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="n">
+        <v>102900051000944</v>
+      </c>
+      <c r="F21" t="n">
         <v>487.5689999999998</v>
       </c>
-      <c r="C21" t="n">
-        <v>1070.875200000001</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="G21" t="n">
         <v>40.6952</v>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2526,35 +2504,33 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>102900005119975</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>102900005119975</v>
+      </c>
+      <c r="F22" t="n">
         <v>3697.112100000014</v>
       </c>
-      <c r="C22" t="n">
-        <v>2947.182399999987</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="G22" t="n">
         <v>986.1256000000008</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
         <v>13.8816</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
-        <v>43.168</v>
-      </c>
-      <c r="J22" t="n">
-        <v>958.7896000000003</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1756.4186</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>2593.168999999999</v>
       </c>
@@ -2623,40 +2599,38 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>102900005125815</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="n">
+        <v>102900005125815</v>
+      </c>
+      <c r="F23" t="n">
         <v>4103.496499999997</v>
       </c>
-      <c r="C23" t="n">
-        <v>3527.476500000007</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="G23" t="n">
         <v>2769.572000000002</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>1464.612999999999</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
         <v>776.1900000000002</v>
       </c>
-      <c r="G23" t="n">
+      <c r="J23" t="n">
         <v>810.335</v>
       </c>
-      <c r="H23" t="n">
+      <c r="K23" t="n">
         <v>1106.669999999999</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1773.273999999998</v>
-      </c>
-      <c r="J23" t="n">
-        <v>848.7239999999997</v>
-      </c>
-      <c r="K23" t="n">
-        <v>590.8900000000002</v>
       </c>
       <c r="L23" t="n">
         <v>885.4719999999988</v>
@@ -2704,36 +2678,34 @@
       <c r="AK23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>102900005115786</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
+        <v>102900005115786</v>
+      </c>
+      <c r="F24" t="n">
         <v>2350.845</v>
       </c>
-      <c r="C24" t="n">
-        <v>1904.087299999995</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="G24" t="n">
         <v>1175.562399999997</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
         <v>140.4</v>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
         <v>477.0660000000001</v>
-      </c>
-      <c r="I24" t="n">
-        <v>524.9199999999997</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1031.062</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2172.512</v>
       </c>
       <c r="L24" t="n">
         <v>3169.742400000002</v>
@@ -2811,40 +2783,38 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>102900051010455</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>102900051010455</v>
+      </c>
+      <c r="F25" t="n">
         <v>4432.458899999996</v>
       </c>
-      <c r="C25" t="n">
-        <v>6994.757700000009</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="G25" t="n">
         <v>4152.157999999998</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>2197.271000000001</v>
       </c>
-      <c r="F25" t="n">
+      <c r="I25" t="n">
         <v>773.0419999999997</v>
       </c>
-      <c r="G25" t="n">
+      <c r="J25" t="n">
         <v>693.0830000000002</v>
       </c>
-      <c r="H25" t="n">
+      <c r="K25" t="n">
         <v>985.8719999999993</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1057.451999999999</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1346.695999999999</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1645.831999999998</v>
       </c>
       <c r="L25" t="n">
         <v>1818.101999999997</v>
@@ -2922,40 +2892,38 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>102900005116509</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="n">
+        <v>102900005116509</v>
+      </c>
+      <c r="F26" t="n">
         <v>2278.751700000001</v>
       </c>
-      <c r="C26" t="n">
-        <v>1825.918199999999</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="G26" t="n">
         <v>1573.619999999998</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>888.9315999999993</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
         <v>535.3200000000002</v>
       </c>
-      <c r="G26" t="n">
+      <c r="J26" t="n">
         <v>377.796</v>
       </c>
-      <c r="H26" t="n">
+      <c r="K26" t="n">
         <v>653.9939999999998</v>
-      </c>
-      <c r="I26" t="n">
-        <v>621.0369999999999</v>
-      </c>
-      <c r="J26" t="n">
-        <v>660.4000000000001</v>
-      </c>
-      <c r="K26" t="n">
-        <v>539.3939999999999</v>
       </c>
       <c r="L26" t="n">
         <v>657.0258000000001</v>
@@ -3035,40 +3003,38 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>102900005116943</t>
-        </is>
+      <c r="A27" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>102900005116943</v>
+      </c>
+      <c r="F27" t="n">
         <v>1074.509700000001</v>
       </c>
-      <c r="C27" t="n">
-        <v>791.2566</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="G27" t="n">
         <v>523.4039999999997</v>
       </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
         <v>657.3542000000004</v>
       </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
         <v>740.8289999999998</v>
       </c>
-      <c r="G27" t="n">
+      <c r="J27" t="n">
         <v>800.9308</v>
       </c>
-      <c r="H27" t="n">
+      <c r="K27" t="n">
         <v>1238.250600000001</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2900.895000000001</v>
-      </c>
-      <c r="J27" t="n">
-        <v>689.0832000000004</v>
-      </c>
-      <c r="K27" t="n">
-        <v>570.2267999999997</v>
       </c>
       <c r="L27" t="n">
         <v>329.4820000000003</v>
@@ -3128,40 +3094,38 @@
       <c r="AK27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>102900005116257</t>
-        </is>
+      <c r="A28" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="n">
+        <v>102900005116257</v>
+      </c>
+      <c r="F28" t="n">
         <v>4537.723499999992</v>
       </c>
-      <c r="C28" t="n">
-        <v>4270.804999999998</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="G28" t="n">
         <v>2719.411</v>
       </c>
-      <c r="E28" t="n">
+      <c r="H28" t="n">
         <v>1990.470599999996</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
         <v>1387.561399999998</v>
       </c>
-      <c r="G28" t="n">
+      <c r="J28" t="n">
         <v>2412.256399999997</v>
       </c>
-      <c r="H28" t="n">
+      <c r="K28" t="n">
         <v>4041.225000000002</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7292.19000000001</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4073.137999999995</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2847.282999999998</v>
       </c>
       <c r="L28" t="n">
         <v>2646.066000000005</v>
@@ -3243,40 +3207,38 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>102900005125808</t>
-        </is>
+      <c r="A29" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="n">
+        <v>102900005125808</v>
+      </c>
+      <c r="F29" t="n">
         <v>2262.670400000001</v>
       </c>
-      <c r="C29" t="n">
-        <v>1142.608999999998</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="G29" t="n">
         <v>779.1600000000002</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>1450.335600000004</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
         <v>1744.965000000001</v>
       </c>
-      <c r="G29" t="n">
+      <c r="J29" t="n">
         <v>3039.836799999988</v>
       </c>
-      <c r="H29" t="n">
+      <c r="K29" t="n">
         <v>3675.819599999993</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9553.918999999982</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1933.950399999999</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1433.331599999997</v>
       </c>
       <c r="L29" t="n">
         <v>1250.2272</v>
@@ -3340,38 +3302,36 @@
       <c r="AK29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>102900005119944</t>
-        </is>
+      <c r="A30" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="n">
+        <v>102900005119944</v>
+      </c>
+      <c r="F30" t="n">
         <v>918.5275999999997</v>
       </c>
-      <c r="C30" t="n">
-        <v>1061.532</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="G30" t="n">
         <v>917.9460000000001</v>
       </c>
-      <c r="E30" t="n">
+      <c r="H30" t="n">
         <v>633.6000000000001</v>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="n">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>333.4799999999999</v>
       </c>
-      <c r="H30" t="n">
+      <c r="K30" t="n">
         <v>380.4320000000002</v>
-      </c>
-      <c r="I30" t="n">
-        <v>325.0980000000002</v>
-      </c>
-      <c r="J30" t="n">
-        <v>58.992</v>
-      </c>
-      <c r="K30" t="n">
-        <v>209.6880000000001</v>
       </c>
       <c r="L30" t="n">
         <v>371.232</v>
@@ -3411,20 +3371,24 @@
       <c r="AK30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>102900011006948</t>
-        </is>
+      <c r="A31" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="n">
+        <v>102900011006948</v>
+      </c>
+      <c r="F31" t="n">
         <v>449.4080000000001</v>
       </c>
-      <c r="C31" t="n">
-        <v>727.8658000000001</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -3494,37 +3458,37 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>102900005115793</t>
-        </is>
+      <c r="A32" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="n">
+        <v>102900005115793</v>
+      </c>
+      <c r="F32" t="n">
         <v>2974.287499999997</v>
       </c>
-      <c r="C32" t="n">
-        <v>3177.420599999997</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="G32" t="n">
         <v>2609.200799999998</v>
       </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
         <v>1151.202</v>
       </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
         <v>311.4759999999999</v>
       </c>
-      <c r="G32" t="n">
+      <c r="J32" t="n">
         <v>142.114</v>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>394.4779999999999</v>
-      </c>
-      <c r="K32" t="n">
-        <v>90.50999999999999</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1445.411999999999</v>
       </c>
@@ -3589,39 +3553,39 @@
       <c r="AK32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>102900005123880</t>
-        </is>
+      <c r="A33" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="n">
+        <v>102900005123880</v>
+      </c>
+      <c r="F33" t="n">
         <v>378.6113000000001</v>
       </c>
-      <c r="C33" t="n">
-        <v>183.95</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="G33" t="n">
         <v>203.27</v>
       </c>
-      <c r="E33" t="n">
+      <c r="H33" t="n">
         <v>209.836</v>
       </c>
-      <c r="F33" t="n">
+      <c r="I33" t="n">
         <v>212.764</v>
       </c>
-      <c r="G33" t="n">
+      <c r="J33" t="n">
         <v>205.774</v>
       </c>
-      <c r="H33" t="n">
+      <c r="K33" t="n">
         <v>145.984</v>
       </c>
-      <c r="I33" t="n">
-        <v>191.904</v>
-      </c>
-      <c r="J33" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1.6</v>
       </c>
@@ -3670,32 +3634,34 @@
       <c r="AK33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>102900005115946</t>
-        </is>
+      <c r="A34" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="n">
+        <v>102900005115946</v>
+      </c>
+      <c r="F34" t="n">
         <v>745.7239999999995</v>
       </c>
-      <c r="C34" t="n">
-        <v>324.448</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="G34" t="n">
         <v>472.3700000000006</v>
       </c>
-      <c r="E34" t="n">
+      <c r="H34" t="n">
         <v>59.02000000000001</v>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="n">
-        <v>8.136000000000001</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>23.55</v>
+        <v>8.136000000000001</v>
       </c>
       <c r="L34" t="n">
         <v>265.549</v>
@@ -3757,40 +3723,38 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>102900005118831</t>
-        </is>
+      <c r="A35" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="n">
+        <v>102900005118831</v>
+      </c>
+      <c r="F35" t="n">
         <v>2573.500000000015</v>
       </c>
-      <c r="C35" t="n">
-        <v>2278.100000000014</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="G35" t="n">
         <v>1278.400000000001</v>
       </c>
-      <c r="E35" t="n">
+      <c r="H35" t="n">
         <v>2207.300000000019</v>
       </c>
-      <c r="F35" t="n">
+      <c r="I35" t="n">
         <v>1031.799999999997</v>
       </c>
-      <c r="G35" t="n">
+      <c r="J35" t="n">
         <v>829.4999999999998</v>
       </c>
-      <c r="H35" t="n">
+      <c r="K35" t="n">
         <v>1420.399999999998</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1699.700000000006</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1284.500000000002</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1304.200000000001</v>
       </c>
       <c r="L35" t="n">
         <v>981.0999999999971</v>
@@ -3866,38 +3830,36 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>102900005116912</t>
-        </is>
+      <c r="A36" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" t="n">
+        <v>102900005116912</v>
+      </c>
+      <c r="F36" t="n">
         <v>663.9561</v>
       </c>
-      <c r="C36" t="n">
-        <v>630.4395000000003</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="G36" t="n">
         <v>576.0600000000002</v>
       </c>
-      <c r="E36" t="n">
+      <c r="H36" t="n">
         <v>429.0120000000002</v>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="n">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
         <v>259.424</v>
       </c>
-      <c r="H36" t="n">
+      <c r="K36" t="n">
         <v>409.92</v>
-      </c>
-      <c r="I36" t="n">
-        <v>285.1780000000001</v>
-      </c>
-      <c r="J36" t="n">
-        <v>151.548</v>
-      </c>
-      <c r="K36" t="n">
-        <v>40.05399999999999</v>
       </c>
       <c r="L36" t="n">
         <v>8.708</v>
@@ -3937,40 +3899,38 @@
       <c r="AK36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>102900005116790</t>
-        </is>
+      <c r="A37" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="n">
+        <v>102900005116790</v>
+      </c>
+      <c r="F37" t="n">
         <v>384.5883000000001</v>
       </c>
-      <c r="C37" t="n">
-        <v>1416.391999999998</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="G37" t="n">
         <v>1680.8682</v>
       </c>
-      <c r="E37" t="n">
+      <c r="H37" t="n">
         <v>2409.889999999999</v>
       </c>
-      <c r="F37" t="n">
+      <c r="I37" t="n">
         <v>903.1319999999992</v>
       </c>
-      <c r="G37" t="n">
+      <c r="J37" t="n">
         <v>492.9138000000002</v>
       </c>
-      <c r="H37" t="n">
+      <c r="K37" t="n">
         <v>735.4631999999981</v>
-      </c>
-      <c r="I37" t="n">
-        <v>391.6309999999998</v>
-      </c>
-      <c r="J37" t="n">
-        <v>919.2719999999997</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1199.979</v>
       </c>
       <c r="L37" t="n">
         <v>817.6589999999993</v>
@@ -4034,40 +3994,38 @@
       <c r="AK37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>102900011000328</t>
-        </is>
+      <c r="A38" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="n">
+        <v>102900011000328</v>
+      </c>
+      <c r="F38" t="n">
         <v>4896.707600000015</v>
       </c>
-      <c r="C38" t="n">
-        <v>3165.908000000002</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="G38" t="n">
         <v>2487.268999999997</v>
       </c>
-      <c r="E38" t="n">
+      <c r="H38" t="n">
         <v>2143.431999999998</v>
       </c>
-      <c r="F38" t="n">
+      <c r="I38" t="n">
         <v>1691.601999999998</v>
       </c>
-      <c r="G38" t="n">
+      <c r="J38" t="n">
         <v>1829.9528</v>
       </c>
-      <c r="H38" t="n">
+      <c r="K38" t="n">
         <v>3019.548199999997</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5150.435200000021</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3211.268</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2295.004799999994</v>
       </c>
       <c r="L38" t="n">
         <v>3079.738000000004</v>
@@ -4147,40 +4105,38 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>102900011006689</t>
-        </is>
+      <c r="A39" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="n">
+        <v>37</v>
+      </c>
+      <c r="E39" t="n">
+        <v>102900011006689</v>
+      </c>
+      <c r="F39" t="n">
         <v>472.2392000000001</v>
       </c>
-      <c r="C39" t="n">
-        <v>317.2548000000001</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="G39" t="n">
         <v>221.0786000000001</v>
       </c>
-      <c r="E39" t="n">
+      <c r="H39" t="n">
         <v>297.9564000000002</v>
       </c>
-      <c r="F39" t="n">
+      <c r="I39" t="n">
         <v>48.21399999999998</v>
       </c>
-      <c r="G39" t="n">
+      <c r="J39" t="n">
         <v>125.3492</v>
       </c>
-      <c r="H39" t="n">
+      <c r="K39" t="n">
         <v>436.9600000000001</v>
-      </c>
-      <c r="I39" t="n">
-        <v>287.732</v>
-      </c>
-      <c r="J39" t="n">
-        <v>333.783</v>
-      </c>
-      <c r="K39" t="n">
-        <v>480.5893999999999</v>
       </c>
       <c r="L39" t="n">
         <v>394.608</v>
@@ -4234,37 +4190,35 @@
       <c r="AK39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>102900011009444</t>
-        </is>
+      <c r="A40" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="n">
+        <v>38</v>
+      </c>
+      <c r="E40" t="n">
+        <v>102900011009444</v>
+      </c>
+      <c r="F40" t="n">
         <v>2756.180799999999</v>
       </c>
-      <c r="C40" t="n">
-        <v>2270.488</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
         <v>1174.3684</v>
       </c>
-      <c r="F40" t="n">
+      <c r="I40" t="n">
         <v>514.0653999999998</v>
       </c>
-      <c r="G40" t="n">
+      <c r="J40" t="n">
         <v>131.136</v>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="n">
-        <v>388.602</v>
-      </c>
-      <c r="J40" t="n">
-        <v>183.8639999999999</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1383.901999999999</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1091.819999999999</v>
       </c>
@@ -4297,32 +4251,36 @@
       <c r="AK40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>102900011001813</t>
-        </is>
+      <c r="A41" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" t="n">
+        <v>102900011001813</v>
+      </c>
+      <c r="F41" t="n">
         <v>97.5</v>
       </c>
-      <c r="C41" t="n">
-        <v>267.4</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="G41" t="n">
         <v>711.8999999999979</v>
       </c>
-      <c r="E41" t="n">
+      <c r="H41" t="n">
         <v>1707.400000000013</v>
       </c>
-      <c r="F41" t="n">
+      <c r="I41" t="n">
         <v>2221</v>
       </c>
-      <c r="G41" t="n">
+      <c r="J41" t="n">
         <v>1136.399999999996</v>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>40</v>
@@ -4360,38 +4318,38 @@
       <c r="AK41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>102900005116837</t>
-        </is>
+      <c r="A42" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="n">
+        <v>40</v>
+      </c>
+      <c r="E42" t="n">
+        <v>102900005116837</v>
+      </c>
+      <c r="F42" t="n">
         <v>5.512</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
+      <c r="G42" t="n">
         <v>744.8599999999993</v>
       </c>
-      <c r="E42" t="n">
+      <c r="H42" t="n">
         <v>1685.196599999995</v>
       </c>
-      <c r="F42" t="n">
+      <c r="I42" t="n">
         <v>1971.030999999997</v>
       </c>
-      <c r="G42" t="n">
+      <c r="J42" t="n">
         <v>3171.147000000003</v>
       </c>
-      <c r="H42" t="n">
+      <c r="K42" t="n">
         <v>2427.714999999998</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1752.521999999996</v>
-      </c>
-      <c r="J42" t="n">
-        <v>991.7279999999984</v>
-      </c>
-      <c r="K42" t="n">
-        <v>826.7049999999992</v>
       </c>
       <c r="L42" t="n">
         <v>422.6340000000001</v>
@@ -4441,40 +4399,38 @@
       <c r="AK42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>102900005116899</t>
-        </is>
+      <c r="A43" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="n">
+        <v>41</v>
+      </c>
+      <c r="E43" t="n">
+        <v>102900005116899</v>
+      </c>
+      <c r="F43" t="n">
         <v>3093.977299999997</v>
       </c>
-      <c r="C43" t="n">
-        <v>6811.038200000026</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="G43" t="n">
         <v>5947.569600000014</v>
       </c>
-      <c r="E43" t="n">
+      <c r="H43" t="n">
         <v>10417.44000000003</v>
       </c>
-      <c r="F43" t="n">
+      <c r="I43" t="n">
         <v>7284.158000000012</v>
       </c>
-      <c r="G43" t="n">
+      <c r="J43" t="n">
         <v>9742.788000000019</v>
       </c>
-      <c r="H43" t="n">
+      <c r="K43" t="n">
         <v>9687.741999999984</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13697.39999999999</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5816.896000000009</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3431.846000000003</v>
       </c>
       <c r="L43" t="n">
         <v>2085.189999999998</v>
@@ -4556,18 +4512,24 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>102900005115816</t>
-        </is>
+      <c r="A44" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" t="n">
+        <v>102900005115816</v>
+      </c>
+      <c r="F44" t="n">
         <v>39</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -4603,27 +4565,33 @@
       <c r="AK44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>106956146480203</t>
-        </is>
+      <c r="A45" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" t="n">
+        <v>106956146480203</v>
+      </c>
+      <c r="F45" t="n">
         <v>14</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="n">
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
         <v>191.1000000000001</v>
       </c>
-      <c r="H45" t="n">
+      <c r="K45" t="n">
         <v>73.5</v>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
@@ -4658,37 +4626,39 @@
       <c r="AK45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>102900005115861</t>
-        </is>
+      <c r="A46" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="n">
+        <v>44</v>
+      </c>
+      <c r="E46" t="n">
+        <v>102900005115861</v>
+      </c>
+      <c r="F46" t="n">
         <v>1.7216</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
+      <c r="G46" t="n">
         <v>414.6300000000001</v>
       </c>
-      <c r="E46" t="n">
+      <c r="H46" t="n">
         <v>3999.272399999987</v>
       </c>
-      <c r="F46" t="n">
+      <c r="I46" t="n">
         <v>2393.148800000006</v>
       </c>
-      <c r="G46" t="n">
+      <c r="J46" t="n">
         <v>1515.981400000021</v>
       </c>
-      <c r="H46" t="n">
+      <c r="K46" t="n">
         <v>1217.418099999998</v>
       </c>
-      <c r="I46" t="n">
-        <v>784.9513999999989</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.224</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
@@ -4731,23 +4701,27 @@
       <c r="AK46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>106956146480197</t>
-        </is>
+      <c r="A47" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="n">
+        <v>45</v>
+      </c>
+      <c r="E47" t="n">
+        <v>106956146480197</v>
+      </c>
+      <c r="F47" t="n">
         <v>292.7</v>
       </c>
-      <c r="C47" t="n">
-        <v>353.4999999999995</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="G47" t="n">
         <v>357.6999999999998</v>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -4782,37 +4756,37 @@
       <c r="AK47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>102900011011546</t>
-        </is>
+      <c r="A48" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="n">
+        <v>46</v>
+      </c>
+      <c r="E48" t="n">
+        <v>102900011011546</v>
+      </c>
+      <c r="F48" t="n">
         <v>39.5</v>
       </c>
-      <c r="C48" t="n">
-        <v>429.7999999999994</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="G48" t="n">
         <v>499.7999999999991</v>
       </c>
-      <c r="E48" t="n">
+      <c r="H48" t="n">
         <v>1090.199999999999</v>
       </c>
-      <c r="F48" t="n">
+      <c r="I48" t="n">
         <v>1662.5</v>
       </c>
-      <c r="G48" t="n">
+      <c r="J48" t="n">
         <v>1333.5</v>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K48" t="n">
-        <v>38.99999999999999</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>15.6</v>
       </c>
@@ -4851,40 +4825,38 @@
       <c r="AK48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>102900011001806</t>
-        </is>
+      <c r="A49" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="n">
+        <v>47</v>
+      </c>
+      <c r="E49" t="n">
+        <v>102900011001806</v>
+      </c>
+      <c r="F49" t="n">
         <v>374.0999999999997</v>
       </c>
-      <c r="C49" t="n">
-        <v>359.8999999999997</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="G49" t="n">
         <v>627.1999999999989</v>
       </c>
-      <c r="E49" t="n">
+      <c r="H49" t="n">
         <v>848.6999999999982</v>
       </c>
-      <c r="F49" t="n">
+      <c r="I49" t="n">
         <v>705.2999999999994</v>
       </c>
-      <c r="G49" t="n">
+      <c r="J49" t="n">
         <v>540.799999999999</v>
       </c>
-      <c r="H49" t="n">
+      <c r="K49" t="n">
         <v>663.9999999999986</v>
-      </c>
-      <c r="I49" t="n">
-        <v>383.5999999999998</v>
-      </c>
-      <c r="J49" t="n">
-        <v>267.9000000000001</v>
-      </c>
-      <c r="K49" t="n">
-        <v>259.6000000000001</v>
       </c>
       <c r="L49" t="n">
         <v>85.30000000000001</v>
@@ -4938,20 +4910,24 @@
       <c r="AK49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>102900011001561</t>
-        </is>
+      <c r="A50" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="n">
+        <v>48</v>
+      </c>
+      <c r="E50" t="n">
+        <v>102900011001561</v>
+      </c>
+      <c r="F50" t="n">
         <v>50.39999999999999</v>
       </c>
-      <c r="C50" t="n">
-        <v>112.5</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -4995,28 +4971,28 @@
       <c r="AK50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>102900005116219</t>
-        </is>
+      <c r="A51" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="n">
+        <v>49</v>
+      </c>
+      <c r="E51" t="n">
+        <v>102900005116219</v>
+      </c>
+      <c r="F51" t="n">
         <v>26.8932</v>
       </c>
-      <c r="C51" t="n">
-        <v>245.14</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="n">
-        <v>96.22859999999999</v>
-      </c>
-      <c r="J51" t="n">
-        <v>14.703</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>226.5919999999999</v>
@@ -5080,17 +5056,21 @@
       <c r="AK51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>102900011000175</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
       <c r="C52" t="n">
-        <v>753.4520000000006</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="n">
+        <v>102900011000175</v>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
@@ -5125,21 +5105,25 @@
       <c r="AK52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>102900011007969</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
       <c r="C53" t="n">
-        <v>26.25</v>
+        <v>51</v>
       </c>
       <c r="D53" t="n">
+        <v>51</v>
+      </c>
+      <c r="E53" t="n">
+        <v>102900011007969</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
         <v>15.22</v>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -5182,38 +5166,36 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>102900011012994</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
       <c r="C54" t="n">
-        <v>88.50000000000001</v>
+        <v>52</v>
       </c>
       <c r="D54" t="n">
+        <v>52</v>
+      </c>
+      <c r="E54" t="n">
+        <v>102900011012994</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="E54" t="n">
+      <c r="H54" t="n">
         <v>1840.200000000011</v>
       </c>
-      <c r="F54" t="n">
+      <c r="I54" t="n">
         <v>710.2999999999992</v>
       </c>
-      <c r="G54" t="n">
+      <c r="J54" t="n">
         <v>478.5999999999993</v>
       </c>
-      <c r="H54" t="n">
+      <c r="K54" t="n">
         <v>716.4999999999983</v>
-      </c>
-      <c r="I54" t="n">
-        <v>587.2999999999989</v>
-      </c>
-      <c r="J54" t="n">
-        <v>367.4999999999997</v>
-      </c>
-      <c r="K54" t="n">
-        <v>224.5000000000002</v>
       </c>
       <c r="L54" t="n">
         <v>253.5000000000003</v>
@@ -5261,38 +5243,36 @@
       <c r="AK54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>102900011009246</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
       <c r="C55" t="n">
-        <v>214.2279999999999</v>
+        <v>53</v>
       </c>
       <c r="D55" t="n">
+        <v>53</v>
+      </c>
+      <c r="E55" t="n">
+        <v>102900011009246</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
         <v>217.7</v>
       </c>
-      <c r="E55" t="n">
+      <c r="H55" t="n">
         <v>284.1439999999999</v>
       </c>
-      <c r="F55" t="n">
+      <c r="I55" t="n">
         <v>225.4699999999999</v>
       </c>
-      <c r="G55" t="n">
+      <c r="J55" t="n">
         <v>272.2859999999999</v>
       </c>
-      <c r="H55" t="n">
+      <c r="K55" t="n">
         <v>356.5799999999999</v>
-      </c>
-      <c r="I55" t="n">
-        <v>457.5480000000001</v>
-      </c>
-      <c r="J55" t="n">
-        <v>391.636</v>
-      </c>
-      <c r="K55" t="n">
-        <v>269.584</v>
       </c>
       <c r="L55" t="n">
         <v>7.007999999999999</v>
@@ -5328,38 +5308,36 @@
       <c r="AK55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>102900011013274</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
       <c r="C56" t="n">
-        <v>284.4</v>
+        <v>54</v>
       </c>
       <c r="D56" t="n">
+        <v>54</v>
+      </c>
+      <c r="E56" t="n">
+        <v>102900011013274</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
         <v>647.799999999999</v>
       </c>
-      <c r="E56" t="n">
+      <c r="H56" t="n">
         <v>1155.1</v>
       </c>
-      <c r="F56" t="n">
+      <c r="I56" t="n">
         <v>1738.600000000009</v>
       </c>
-      <c r="G56" t="n">
+      <c r="J56" t="n">
         <v>1055.799999999998</v>
       </c>
-      <c r="H56" t="n">
+      <c r="K56" t="n">
         <v>1245.200000000003</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1888.100000000008</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1026.999999999998</v>
-      </c>
-      <c r="K56" t="n">
-        <v>605.3999999999987</v>
       </c>
       <c r="L56" t="n">
         <v>267.2000000000002</v>
@@ -5437,17 +5415,21 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>102900011001691</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
       <c r="C57" t="n">
-        <v>140.616</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="D57" t="n">
+        <v>55</v>
+      </c>
+      <c r="E57" t="n">
+        <v>102900011001691</v>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -5496,38 +5478,36 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>102900011008164</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
       <c r="C58" t="n">
-        <v>136.8849999999999</v>
+        <v>56</v>
       </c>
       <c r="D58" t="n">
+        <v>56</v>
+      </c>
+      <c r="E58" t="n">
+        <v>102900011008164</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
         <v>953.0785999999993</v>
       </c>
-      <c r="E58" t="n">
+      <c r="H58" t="n">
         <v>1183.044999999997</v>
       </c>
-      <c r="F58" t="n">
+      <c r="I58" t="n">
         <v>746.4092000000009</v>
       </c>
-      <c r="G58" t="n">
+      <c r="J58" t="n">
         <v>212.8594</v>
       </c>
-      <c r="H58" t="n">
+      <c r="K58" t="n">
         <v>730.5089999999994</v>
-      </c>
-      <c r="I58" t="n">
-        <v>912.9373999999997</v>
-      </c>
-      <c r="J58" t="n">
-        <v>646.848</v>
-      </c>
-      <c r="K58" t="n">
-        <v>816.7007999999943</v>
       </c>
       <c r="L58" t="n">
         <v>482.916399999999</v>
@@ -5609,25 +5589,27 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>102900011010891</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
       <c r="C59" t="n">
-        <v>42.672</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+        <v>57</v>
+      </c>
+      <c r="D59" t="n">
+        <v>57</v>
+      </c>
+      <c r="E59" t="n">
+        <v>102900011010891</v>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>101.936</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
@@ -5676,37 +5658,35 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>102900051000463</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
       <c r="C60" t="n">
-        <v>139.163</v>
+        <v>58</v>
       </c>
       <c r="D60" t="n">
+        <v>58</v>
+      </c>
+      <c r="E60" t="n">
+        <v>102900051000463</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
         <v>1015.712</v>
       </c>
-      <c r="E60" t="n">
+      <c r="H60" t="n">
         <v>834.2815999999999</v>
       </c>
-      <c r="F60" t="n">
+      <c r="I60" t="n">
         <v>321.9300000000001</v>
       </c>
-      <c r="G60" t="n">
+      <c r="J60" t="n">
         <v>266.162</v>
       </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="n">
-        <v>358.1320000000002</v>
-      </c>
-      <c r="J60" t="n">
-        <v>331.7710000000001</v>
-      </c>
-      <c r="K60" t="n">
-        <v>248.1893999999999</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>348.0209999999999</v>
       </c>
@@ -5775,36 +5755,34 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>102900051009336</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
       <c r="C61" t="n">
-        <v>11.8902</v>
+        <v>59</v>
       </c>
       <c r="D61" t="n">
-        <v>157.2844</v>
+        <v>59</v>
       </c>
       <c r="E61" t="n">
-        <v>234.526</v>
+        <v>102900051009336</v>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
+        <v>157.2844</v>
+      </c>
+      <c r="H61" t="n">
+        <v>234.526</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
         <v>15.2874</v>
       </c>
-      <c r="H61" t="n">
+      <c r="K61" t="n">
         <v>29.8894</v>
-      </c>
-      <c r="I61" t="n">
-        <v>9.204800000000001</v>
-      </c>
-      <c r="J61" t="n">
-        <v>68.45059999999999</v>
-      </c>
-      <c r="K61" t="n">
-        <v>139.017</v>
       </c>
       <c r="L61" t="n">
         <v>74.82780000000001</v>
@@ -5844,28 +5822,30 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>102900005119968</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
       <c r="D62" t="n">
+        <v>60</v>
+      </c>
+      <c r="E62" t="n">
+        <v>102900005119968</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
         <v>80.52000000000002</v>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="n">
-        <v>40.103</v>
-      </c>
-      <c r="I62" t="n">
-        <v>64.07300000000001</v>
-      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>2.508</v>
+        <v>40.103</v>
       </c>
       <c r="L62" t="n">
         <v>4.016</v>
@@ -5907,28 +5887,32 @@
       <c r="AK62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>102900011016909</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
       <c r="D63" t="n">
+        <v>61</v>
+      </c>
+      <c r="E63" t="n">
+        <v>102900011016909</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
         <v>110.904</v>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="n">
-        <v>46.9224</v>
-      </c>
-      <c r="G63" t="n">
-        <v>221.469</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>200.472</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>46.9224</v>
+      </c>
+      <c r="J63" t="n">
+        <v>221.469</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
@@ -5966,29 +5950,29 @@
       <c r="AK63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>102900011016701</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
       <c r="D64" t="n">
+        <v>62</v>
+      </c>
+      <c r="E64" t="n">
+        <v>102900011016701</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
         <v>164.016</v>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="n">
-        <v>16673.74340000008</v>
-      </c>
-      <c r="J64" t="n">
-        <v>7739.594399999984</v>
-      </c>
-      <c r="K64" t="n">
-        <v>7104.400999999998</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>6322.950400000031</v>
       </c>
@@ -6069,36 +6053,36 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>102900005115885</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
       <c r="D65" t="n">
+        <v>63</v>
+      </c>
+      <c r="E65" t="n">
+        <v>102900005115885</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
         <v>81.71200000000002</v>
       </c>
-      <c r="E65" t="n">
+      <c r="H65" t="n">
         <v>531.7779999999999</v>
       </c>
-      <c r="F65" t="n">
+      <c r="I65" t="n">
         <v>786.9479999999999</v>
       </c>
-      <c r="G65" t="n">
+      <c r="J65" t="n">
         <v>620.1197999999999</v>
       </c>
-      <c r="H65" t="n">
+      <c r="K65" t="n">
         <v>399.4997999999999</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2580.487399999999</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1047.702</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1139.801999999998</v>
       </c>
       <c r="L65" t="n">
         <v>78.17999999999999</v>
@@ -6150,29 +6134,29 @@
       <c r="AK65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>102900011007464</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
       <c r="D66" t="n">
+        <v>64</v>
+      </c>
+      <c r="E66" t="n">
+        <v>102900011007464</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
         <v>32.94</v>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="n">
-        <v>6.3002</v>
-      </c>
-      <c r="J66" t="n">
-        <v>129.9204</v>
-      </c>
-      <c r="K66" t="n">
-        <v>71.1442</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>43.28</v>
@@ -6229,36 +6213,36 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>102900005115878</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
       <c r="D67" t="n">
+        <v>65</v>
+      </c>
+      <c r="E67" t="n">
+        <v>102900005115878</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
         <v>863.4334000000006</v>
       </c>
-      <c r="E67" t="n">
+      <c r="H67" t="n">
         <v>3253.871999999997</v>
       </c>
-      <c r="F67" t="n">
+      <c r="I67" t="n">
         <v>1453.156799999999</v>
       </c>
-      <c r="G67" t="n">
+      <c r="J67" t="n">
         <v>1182.395999999998</v>
       </c>
-      <c r="H67" t="n">
+      <c r="K67" t="n">
         <v>1595.902</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1834.657999999999</v>
-      </c>
-      <c r="J67" t="n">
-        <v>922.3369999999995</v>
-      </c>
-      <c r="K67" t="n">
-        <v>91.34699999999999</v>
       </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -6318,34 +6302,34 @@
       <c r="AK67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>102900005119098</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
       <c r="D68" t="n">
-        <v>359.6663999999999</v>
+        <v>66</v>
       </c>
       <c r="E68" t="n">
-        <v>68.52879999999999</v>
+        <v>102900005119098</v>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
+        <v>359.6663999999999</v>
+      </c>
+      <c r="H68" t="n">
+        <v>68.52879999999999</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
         <v>1327.3385</v>
       </c>
-      <c r="H68" t="n">
+      <c r="K68" t="n">
         <v>853.4505000000003</v>
-      </c>
-      <c r="I68" t="n">
-        <v>923.4627999999999</v>
-      </c>
-      <c r="J68" t="n">
-        <v>393.5832</v>
-      </c>
-      <c r="K68" t="n">
-        <v>813.9413999999999</v>
       </c>
       <c r="L68" t="n">
         <v>1724.863399999999</v>
@@ -6387,33 +6371,35 @@
       <c r="AK68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>102900005115250</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
       <c r="D69" t="n">
+        <v>67</v>
+      </c>
+      <c r="E69" t="n">
+        <v>102900005115250</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
         <v>45.2016</v>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="n">
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
         <v>3282.217799999999</v>
       </c>
-      <c r="G69" t="n">
+      <c r="J69" t="n">
         <v>12.317</v>
       </c>
-      <c r="H69" t="n">
+      <c r="K69" t="n">
         <v>4405.099399999995</v>
       </c>
-      <c r="I69" t="n">
-        <v>15718.0828</v>
-      </c>
-      <c r="J69" t="n">
-        <v>575.302</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
@@ -6472,28 +6458,34 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>102900011012871</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
       <c r="D70" t="n">
+        <v>68</v>
+      </c>
+      <c r="E70" t="n">
+        <v>102900011012871</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
         <v>55.91200000000001</v>
       </c>
-      <c r="E70" t="n">
+      <c r="H70" t="n">
         <v>88.624</v>
       </c>
-      <c r="F70" t="n">
+      <c r="I70" t="n">
         <v>66.0776</v>
       </c>
-      <c r="G70" t="n">
+      <c r="J70" t="n">
         <v>392.5134</v>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
@@ -6523,19 +6515,25 @@
       <c r="AK70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>102900011010563</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
       <c r="D71" t="n">
+        <v>69</v>
+      </c>
+      <c r="E71" t="n">
+        <v>102900011010563</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
         <v>92.09700000000001</v>
       </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -6568,29 +6566,33 @@
       <c r="AK71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>102900011007044</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
       <c r="D72" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E72" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="E72" t="n">
+        <v>102900011007044</v>
+      </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
         <v>153.4000000000001</v>
       </c>
-      <c r="H72" t="n">
+      <c r="K72" t="n">
         <v>100.3</v>
       </c>
-      <c r="I72" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -6647,27 +6649,31 @@
       <c r="AK72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>106931885000035</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="n">
+        <v>71</v>
+      </c>
       <c r="E73" t="n">
+        <v>106931885000035</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
         <v>51.2</v>
       </c>
-      <c r="F73" t="n">
+      <c r="I73" t="n">
         <v>12.9</v>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>25.8</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
@@ -6696,25 +6702,29 @@
       <c r="AK73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>102900005118572</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="n">
+        <v>72</v>
+      </c>
       <c r="E74" t="n">
-        <v>93.006</v>
+        <v>102900005118572</v>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>93.006</v>
+      </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>259.8109999999994</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>738.7345999999998</v>
       </c>
@@ -6755,32 +6765,32 @@
       <c r="AK74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>102900005115854</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="n">
+        <v>73</v>
+      </c>
       <c r="E75" t="n">
-        <v>287.34</v>
-      </c>
-      <c r="F75" t="n">
-        <v>54.27599999999998</v>
-      </c>
+        <v>102900005115854</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
+        <v>287.34</v>
+      </c>
+      <c r="I75" t="n">
+        <v>54.27599999999998</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
         <v>22.65899999999999</v>
-      </c>
-      <c r="I75" t="n">
-        <v>153.282</v>
-      </c>
-      <c r="J75" t="n">
-        <v>109.35</v>
-      </c>
-      <c r="K75" t="n">
-        <v>263.338</v>
       </c>
       <c r="L75" t="n">
         <v>286.476</v>
@@ -6832,33 +6842,35 @@
       <c r="AK75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>102900011018095</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="n">
+        <v>74</v>
+      </c>
       <c r="E76" t="n">
+        <v>102900011018095</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="n">
         <v>635.3999999999997</v>
       </c>
-      <c r="F76" t="n">
+      <c r="I76" t="n">
         <v>1001.099999999998</v>
       </c>
-      <c r="G76" t="n">
+      <c r="J76" t="n">
         <v>1185.9</v>
       </c>
-      <c r="H76" t="n">
+      <c r="K76" t="n">
         <v>1132.799999999999</v>
       </c>
-      <c r="I76" t="n">
-        <v>1563.500000000005</v>
-      </c>
-      <c r="J76" t="n">
-        <v>454.2999999999994</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -6887,31 +6899,35 @@
       <c r="AK76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>102900005122654</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="n">
+        <v>75</v>
+      </c>
       <c r="E77" t="n">
+        <v>102900005122654</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="n">
         <v>175.3299999999999</v>
       </c>
-      <c r="F77" t="n">
+      <c r="I77" t="n">
         <v>1209.764199999998</v>
       </c>
-      <c r="G77" t="n">
+      <c r="J77" t="n">
         <v>2122.230999999999</v>
       </c>
-      <c r="H77" t="n">
+      <c r="K77" t="n">
         <v>4914.677399999998</v>
       </c>
-      <c r="I77" t="n">
-        <v>1731.818000000005</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -6964,27 +6980,31 @@
       <c r="AK77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>102900005115168</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="n">
+        <v>76</v>
+      </c>
       <c r="E78" t="n">
+        <v>102900005115168</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="n">
         <v>68.39</v>
       </c>
-      <c r="F78" t="n">
+      <c r="I78" t="n">
         <v>60.3796</v>
       </c>
-      <c r="G78" t="n">
+      <c r="J78" t="n">
         <v>17.916</v>
-      </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>386.1950000000002</v>
       </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
@@ -7029,26 +7049,30 @@
       <c r="AK78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>102900011008676</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="n">
-        <v>39.306</v>
-      </c>
-      <c r="G79" t="n">
-        <v>29.582</v>
-      </c>
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="n">
+        <v>77</v>
+      </c>
+      <c r="E79" t="n">
+        <v>102900011008676</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>39.306</v>
+      </c>
+      <c r="J79" t="n">
+        <v>29.582</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
@@ -7080,29 +7104,29 @@
       <c r="AK79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>102900005115199</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="n">
-        <v>316.8156000000001</v>
-      </c>
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="n">
+        <v>78</v>
+      </c>
+      <c r="E80" t="n">
+        <v>102900005115199</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>221.9516</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3094.3794</v>
-      </c>
-      <c r="K80" t="n">
-        <v>1576.556399999999</v>
-      </c>
+        <v>316.8156000000001</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>178.1444</v>
       </c>
@@ -7141,27 +7165,33 @@
       <c r="AK80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>102900011018132</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="n">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="n">
+        <v>79</v>
+      </c>
+      <c r="E81" t="n">
+        <v>102900011018132</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
         <v>231.868</v>
       </c>
-      <c r="G81" t="n">
+      <c r="J81" t="n">
         <v>368.6759999999999</v>
       </c>
-      <c r="H81" t="n">
+      <c r="K81" t="n">
         <v>70.60199999999999</v>
       </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
@@ -7192,25 +7222,29 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>102900011008577</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="n">
-        <v>7.8</v>
-      </c>
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="n">
+        <v>80</v>
+      </c>
+      <c r="E82" t="n">
+        <v>102900011008577</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>7.8</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>6.8</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
@@ -7241,24 +7275,30 @@
       <c r="AK82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>102900005115977</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="n">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="n">
+        <v>81</v>
+      </c>
+      <c r="E83" t="n">
+        <v>102900005115977</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
         <v>248.3419999999999</v>
       </c>
-      <c r="G83" t="n">
+      <c r="J83" t="n">
         <v>153.73</v>
       </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -7298,27 +7338,29 @@
       <c r="AK83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>102900005115748</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="n">
-        <v>108.258</v>
-      </c>
-      <c r="G84" t="n">
-        <v>59.61900000000001</v>
-      </c>
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="n">
+        <v>82</v>
+      </c>
+      <c r="E84" t="n">
+        <v>102900005115748</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>254.8310000000001</v>
+        <v>108.258</v>
       </c>
       <c r="J84" t="n">
-        <v>1348.7978</v>
+        <v>59.61900000000001</v>
       </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
@@ -7361,26 +7403,30 @@
       <c r="AK84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>102900011011669</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="n">
-        <v>74.07400000000001</v>
-      </c>
-      <c r="G85" t="n">
-        <v>100.364</v>
-      </c>
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="n">
+        <v>83</v>
+      </c>
+      <c r="E85" t="n">
+        <v>102900011011669</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>49.392</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>74.07400000000001</v>
+      </c>
+      <c r="J85" t="n">
+        <v>100.364</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
@@ -7410,27 +7456,31 @@
       <c r="AK85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>102900011009277</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="n">
+        <v>84</v>
+      </c>
+      <c r="E86" t="n">
+        <v>102900011009277</v>
+      </c>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" t="n">
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
         <v>2925.779</v>
       </c>
-      <c r="H86" t="n">
+      <c r="K86" t="n">
         <v>2223.040999999997</v>
       </c>
-      <c r="I86" t="n">
-        <v>1286.049999999999</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
@@ -7473,29 +7523,31 @@
       <c r="AK86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>102900011000571</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="n">
+        <v>85</v>
+      </c>
+      <c r="E87" t="n">
+        <v>102900011000571</v>
+      </c>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="n">
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
         <v>233.5556</v>
       </c>
-      <c r="H87" t="n">
+      <c r="K87" t="n">
         <v>493.1979999999996</v>
       </c>
-      <c r="I87" t="n">
-        <v>228.4739999999999</v>
-      </c>
-      <c r="J87" t="n">
-        <v>450.9732000000004</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
@@ -7540,30 +7592,30 @@
       <c r="AK87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>106949711300068</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="n">
+        <v>86</v>
+      </c>
+      <c r="E88" t="n">
+        <v>106949711300068</v>
+      </c>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" t="n">
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
         <v>1018.5</v>
       </c>
-      <c r="H88" t="n">
+      <c r="K88" t="n">
         <v>1439.500000000005</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2504.600000000019</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1417.600000000009</v>
-      </c>
-      <c r="K88" t="n">
-        <v>568.2999999999993</v>
       </c>
       <c r="L88" t="n">
         <v>375.5</v>
@@ -7603,30 +7655,30 @@
       <c r="AK88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>106930274220092</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="n">
+        <v>87</v>
+      </c>
+      <c r="E89" t="n">
+        <v>106930274220092</v>
+      </c>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="n">
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
         <v>39.2</v>
       </c>
-      <c r="H89" t="n">
+      <c r="K89" t="n">
         <v>268.3000000000002</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1062.299999999997</v>
-      </c>
-      <c r="J89" t="n">
-        <v>298.9</v>
-      </c>
-      <c r="K89" t="n">
-        <v>209.5000000000002</v>
       </c>
       <c r="L89" t="n">
         <v>3.9</v>
@@ -7658,22 +7710,28 @@
       <c r="AK89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>102900011021699</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="n">
+        <v>88</v>
+      </c>
+      <c r="E90" t="n">
+        <v>102900011021699</v>
+      </c>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="n">
-        <v>60.2172</v>
-      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>60.2172</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
@@ -7707,30 +7765,30 @@
       <c r="AK90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>102900011021842</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="n">
+        <v>89</v>
+      </c>
+      <c r="E91" t="n">
+        <v>102900011021842</v>
+      </c>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="n">
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
         <v>1663.200000000004</v>
       </c>
-      <c r="H91" t="n">
+      <c r="K91" t="n">
         <v>5435.099999999977</v>
-      </c>
-      <c r="I91" t="n">
-        <v>8255.399999999903</v>
-      </c>
-      <c r="J91" t="n">
-        <v>3322.500000000015</v>
-      </c>
-      <c r="K91" t="n">
-        <v>1535.100000000002</v>
       </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
@@ -7792,30 +7850,30 @@
       <c r="AK91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>106958851400125</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="n">
+        <v>90</v>
+      </c>
+      <c r="E92" t="n">
+        <v>106958851400125</v>
+      </c>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="n">
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
         <v>49</v>
       </c>
-      <c r="H92" t="n">
+      <c r="K92" t="n">
         <v>955.5</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1520.000000000008</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1423.500000000005</v>
-      </c>
-      <c r="K92" t="n">
-        <v>491.7999999999988</v>
       </c>
       <c r="L92" t="n">
         <v>213.4000000000001</v>
@@ -7861,25 +7919,29 @@
       <c r="AK92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>102900011000632</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="n">
+        <v>91</v>
+      </c>
+      <c r="E93" t="n">
+        <v>102900011000632</v>
+      </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="n">
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
         <v>127.3782</v>
       </c>
-      <c r="I93" t="n">
-        <v>17.532</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
@@ -7914,28 +7976,28 @@
       <c r="AK93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>102900011022030</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="n">
+        <v>92</v>
+      </c>
+      <c r="E94" t="n">
+        <v>102900011022030</v>
+      </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="n">
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
         <v>903.4999999999991</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2599.300000000009</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1431.700000000002</v>
-      </c>
-      <c r="K94" t="n">
-        <v>764.4999999999993</v>
       </c>
       <c r="L94" t="n">
         <v>736.6999999999994</v>
@@ -7973,25 +8035,29 @@
       <c r="AK94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>102900011022764</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="n">
+        <v>93</v>
+      </c>
+      <c r="E95" t="n">
+        <v>102900011022764</v>
+      </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="n">
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
         <v>197.648</v>
       </c>
-      <c r="I95" t="n">
-        <v>1310.8308</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>128.594</v>
@@ -8056,21 +8122,25 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>106973223300667</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="n">
+        <v>94</v>
+      </c>
+      <c r="E96" t="n">
+        <v>106973223300667</v>
+      </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
@@ -8101,21 +8171,25 @@
       <c r="AK96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>102900011008133</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="n">
+        <v>95</v>
+      </c>
+      <c r="E97" t="n">
+        <v>102900011008133</v>
+      </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
-      <c r="I97" t="n">
-        <v>42.31</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
@@ -8154,21 +8228,25 @@
       <c r="AK97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>102900011022849</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="n">
+        <v>96</v>
+      </c>
+      <c r="E98" t="n">
+        <v>102900011022849</v>
+      </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="n">
-        <v>72.49300000000004</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
@@ -8209,21 +8287,25 @@
       <c r="AK98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>102900005116905</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="n">
+        <v>97</v>
+      </c>
+      <c r="E99" t="n">
+        <v>102900005116905</v>
+      </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="n">
-        <v>27.9888</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
@@ -8258,27 +8340,27 @@
       <c r="AK99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>102900051010790</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="n">
+        <v>98</v>
+      </c>
+      <c r="E100" t="n">
+        <v>102900051010790</v>
+      </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="n">
-        <v>66.726</v>
-      </c>
-      <c r="J100" t="n">
-        <v>70.66579999999999</v>
-      </c>
-      <c r="K100" t="n">
-        <v>151.718</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>27.95800000000001</v>
       </c>
@@ -8323,27 +8405,27 @@
       <c r="AK100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>102900011002414</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="n">
+        <v>99</v>
+      </c>
+      <c r="E101" t="n">
+        <v>102900011002414</v>
+      </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="n">
-        <v>11.028</v>
-      </c>
-      <c r="J101" t="n">
-        <v>123.708</v>
-      </c>
-      <c r="K101" t="n">
-        <v>163.392</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>135.952</v>
       </c>
@@ -8382,27 +8464,27 @@
       <c r="AK101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>102900051009220</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="n">
+        <v>100</v>
+      </c>
+      <c r="E102" t="n">
+        <v>102900051009220</v>
+      </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="n">
-        <v>43.45</v>
-      </c>
-      <c r="J102" t="n">
-        <v>178.7139999999999</v>
-      </c>
-      <c r="K102" t="n">
-        <v>158.715</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
@@ -8431,22 +8513,26 @@
       <c r="AK102" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>102900011022924</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="n">
+        <v>101</v>
+      </c>
+      <c r="E103" t="n">
+        <v>102900011022924</v>
+      </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>90.82499999999999</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
@@ -8476,25 +8562,27 @@
       <c r="AK103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>102900005116639</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="n">
+        <v>102</v>
+      </c>
+      <c r="E104" t="n">
+        <v>102900005116639</v>
+      </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>111.637</v>
-      </c>
-      <c r="K104" t="n">
-        <v>268.0080000000001</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>54.538</v>
       </c>
@@ -8541,22 +8629,26 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>102900011015391</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="n">
+        <v>103</v>
+      </c>
+      <c r="E105" t="n">
+        <v>102900011015391</v>
+      </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>11.316</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
@@ -8586,22 +8678,26 @@
       <c r="AK105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <t>102900011008515</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="n">
+        <v>104</v>
+      </c>
+      <c r="E106" t="n">
+        <v>102900011008515</v>
+      </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>28.67</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
@@ -8643,25 +8739,27 @@
       <c r="AK106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <t>102900011007471</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="n">
+        <v>105</v>
+      </c>
+      <c r="E107" t="n">
+        <v>102900011007471</v>
+      </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>8.494199999999999</v>
-      </c>
-      <c r="K107" t="n">
-        <v>49.1634</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
@@ -8702,22 +8800,26 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="inlineStr">
-        <is>
-          <t>102900011023075</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="n">
+        <v>106</v>
+      </c>
+      <c r="E108" t="n">
+        <v>102900011023075</v>
+      </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>4.9</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
@@ -8747,15 +8849,21 @@
       <c r="AK108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="inlineStr">
-        <is>
-          <t>102900011024010</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="n">
+        <v>107</v>
+      </c>
+      <c r="E109" t="n">
+        <v>102900011024010</v>
+      </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
@@ -8792,15 +8900,21 @@
       <c r="AK109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="inlineStr">
-        <is>
-          <t>102900005117353</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="n">
+        <v>108</v>
+      </c>
+      <c r="E110" t="n">
+        <v>102900005117353</v>
+      </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
@@ -8839,15 +8953,21 @@
       <c r="AK110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="inlineStr">
-        <is>
-          <t>102900011026502</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="n">
+        <v>109</v>
+      </c>
+      <c r="E111" t="n">
+        <v>102900011026502</v>
+      </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
@@ -8884,15 +9004,21 @@
       <c r="AK111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>102900005116806</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="n">
+        <v>110</v>
+      </c>
+      <c r="E112" t="n">
+        <v>102900005116806</v>
+      </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
@@ -8933,15 +9059,21 @@
       <c r="AK112" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>102900011006955</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="n">
+        <v>111</v>
+      </c>
+      <c r="E113" t="n">
+        <v>102900011006955</v>
+      </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
@@ -8982,15 +9114,21 @@
       <c r="AK113" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <t>102900011008485</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="n">
+        <v>112</v>
+      </c>
+      <c r="E114" t="n">
+        <v>102900011008485</v>
+      </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
@@ -9037,15 +9175,21 @@
       <c r="AK114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="inlineStr">
-        <is>
-          <t>102900011000861</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="n">
+        <v>113</v>
+      </c>
+      <c r="E115" t="n">
+        <v>102900011000861</v>
+      </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
@@ -9084,15 +9228,21 @@
       <c r="AK115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="inlineStr">
-        <is>
-          <t>102900011026793</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="n">
+        <v>114</v>
+      </c>
+      <c r="E116" t="n">
+        <v>102900011026793</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -9133,15 +9283,21 @@
       <c r="AK116" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
-        <is>
-          <t>102900011027479</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="n">
+        <v>115</v>
+      </c>
+      <c r="E117" t="n">
+        <v>102900011027479</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -9198,15 +9354,21 @@
       <c r="AK117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>102900011000335</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="n">
+        <v>116</v>
+      </c>
+      <c r="E118" t="n">
+        <v>102900011000335</v>
+      </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
@@ -9249,15 +9411,21 @@
       <c r="AK118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <t>102900011027615</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="n">
+        <v>117</v>
+      </c>
+      <c r="E119" t="n">
+        <v>102900011027615</v>
+      </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
@@ -9294,15 +9462,21 @@
       <c r="AK119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>102900011008492</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="n">
+        <v>118</v>
+      </c>
+      <c r="E120" t="n">
+        <v>102900011008492</v>
+      </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
@@ -9339,15 +9513,21 @@
       <c r="AK120" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>102900011027462</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="n">
+        <v>119</v>
+      </c>
+      <c r="E121" t="n">
+        <v>102900011027462</v>
+      </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
@@ -9384,15 +9564,21 @@
       <c r="AK121" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="inlineStr">
-        <is>
-          <t>102900051000890</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="n">
+        <v>120</v>
+      </c>
+      <c r="E122" t="n">
+        <v>102900051000890</v>
+      </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
@@ -9429,15 +9615,21 @@
       <c r="AK122" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="inlineStr">
-        <is>
-          <t>102900011007495</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="n">
+        <v>121</v>
+      </c>
+      <c r="E123" t="n">
+        <v>102900011007495</v>
+      </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
@@ -9488,15 +9680,21 @@
       <c r="AK123" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <t>102900005128748</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="n">
+        <v>122</v>
+      </c>
+      <c r="E124" t="n">
+        <v>102900005128748</v>
+      </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
@@ -9535,15 +9733,21 @@
       <c r="AK124" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="inlineStr">
-        <is>
-          <t>102900011023464</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="n">
+        <v>123</v>
+      </c>
+      <c r="E125" t="n">
+        <v>102900011023464</v>
+      </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
@@ -9624,15 +9828,21 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="inlineStr">
-        <is>
-          <t>102900011028407</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="n">
+        <v>124</v>
+      </c>
+      <c r="E126" t="n">
+        <v>102900011028407</v>
+      </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
@@ -9671,15 +9881,21 @@
       <c r="AK126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <t>106949711300167</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>125</v>
+      </c>
+      <c r="D127" t="n">
+        <v>125</v>
+      </c>
+      <c r="E127" t="n">
+        <v>106949711300167</v>
+      </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
@@ -9734,15 +9950,21 @@
       <c r="AK127" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>102900011029176</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="n">
+        <v>126</v>
+      </c>
+      <c r="E128" t="n">
+        <v>102900011029176</v>
+      </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
@@ -9785,15 +10007,21 @@
       <c r="AK128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <t>102900005119104</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="n">
+        <v>127</v>
+      </c>
+      <c r="D129" t="n">
+        <v>127</v>
+      </c>
+      <c r="E129" t="n">
+        <v>102900005119104</v>
+      </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
@@ -9840,15 +10068,21 @@
       <c r="AK129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <t>106971533450003</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="n">
+        <v>128</v>
+      </c>
+      <c r="D130" t="n">
+        <v>128</v>
+      </c>
+      <c r="E130" t="n">
+        <v>106971533450003</v>
+      </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
@@ -9895,15 +10129,21 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="inlineStr">
-        <is>
-          <t>102900011029688</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>129</v>
+      </c>
+      <c r="C131" t="n">
+        <v>129</v>
+      </c>
+      <c r="D131" t="n">
+        <v>129</v>
+      </c>
+      <c r="E131" t="n">
+        <v>102900011029688</v>
+      </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
@@ -9940,15 +10180,21 @@
       <c r="AK131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>102900011029275</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>130</v>
+      </c>
+      <c r="C132" t="n">
+        <v>130</v>
+      </c>
+      <c r="D132" t="n">
+        <v>130</v>
+      </c>
+      <c r="E132" t="n">
+        <v>102900011029275</v>
+      </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
@@ -9985,15 +10231,21 @@
       <c r="AK132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>102900011030134</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>131</v>
+      </c>
+      <c r="C133" t="n">
+        <v>131</v>
+      </c>
+      <c r="D133" t="n">
+        <v>131</v>
+      </c>
+      <c r="E133" t="n">
+        <v>102900011030134</v>
+      </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
@@ -10058,15 +10310,21 @@
       <c r="AK133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>102900011030103</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>132</v>
+      </c>
+      <c r="C134" t="n">
+        <v>132</v>
+      </c>
+      <c r="D134" t="n">
+        <v>132</v>
+      </c>
+      <c r="E134" t="n">
+        <v>102900011030103</v>
+      </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
@@ -10109,15 +10367,21 @@
       <c r="AK134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>102900011030158</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>133</v>
+      </c>
+      <c r="C135" t="n">
+        <v>133</v>
+      </c>
+      <c r="D135" t="n">
+        <v>133</v>
+      </c>
+      <c r="E135" t="n">
+        <v>102900011030158</v>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
@@ -10158,15 +10422,21 @@
       <c r="AK135" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>102900011030097</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>134</v>
+      </c>
+      <c r="C136" t="n">
+        <v>134</v>
+      </c>
+      <c r="D136" t="n">
+        <v>134</v>
+      </c>
+      <c r="E136" t="n">
+        <v>102900011030097</v>
+      </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
@@ -10235,15 +10505,21 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>102900011030110</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>135</v>
+      </c>
+      <c r="C137" t="n">
+        <v>135</v>
+      </c>
+      <c r="D137" t="n">
+        <v>135</v>
+      </c>
+      <c r="E137" t="n">
+        <v>102900011030110</v>
+      </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
@@ -10312,15 +10588,21 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>102900011030141</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>136</v>
+      </c>
+      <c r="C138" t="n">
+        <v>136</v>
+      </c>
+      <c r="D138" t="n">
+        <v>136</v>
+      </c>
+      <c r="E138" t="n">
+        <v>102900011030141</v>
+      </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
@@ -10381,15 +10663,21 @@
       <c r="AK138" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>102900011030059</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>137</v>
+      </c>
+      <c r="C139" t="n">
+        <v>137</v>
+      </c>
+      <c r="D139" t="n">
+        <v>137</v>
+      </c>
+      <c r="E139" t="n">
+        <v>102900011030059</v>
+      </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
@@ -10460,15 +10748,21 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>102900011030042</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>138</v>
+      </c>
+      <c r="C140" t="n">
+        <v>138</v>
+      </c>
+      <c r="D140" t="n">
+        <v>138</v>
+      </c>
+      <c r="E140" t="n">
+        <v>102900011030042</v>
+      </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
@@ -10509,15 +10803,21 @@
       <c r="AK140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>102900051006229</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>139</v>
+      </c>
+      <c r="C141" t="n">
+        <v>139</v>
+      </c>
+      <c r="D141" t="n">
+        <v>139</v>
+      </c>
+      <c r="E141" t="n">
+        <v>102900051006229</v>
+      </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
@@ -10556,15 +10856,21 @@
       <c r="AK141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="inlineStr">
-        <is>
-          <t>102900011031100</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>140</v>
+      </c>
+      <c r="C142" t="n">
+        <v>140</v>
+      </c>
+      <c r="D142" t="n">
+        <v>140</v>
+      </c>
+      <c r="E142" t="n">
+        <v>102900011031100</v>
+      </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
@@ -10635,15 +10941,21 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="inlineStr">
-        <is>
-          <t>102900011021644</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>141</v>
+      </c>
+      <c r="C143" t="n">
+        <v>141</v>
+      </c>
+      <c r="D143" t="n">
+        <v>141</v>
+      </c>
+      <c r="E143" t="n">
+        <v>102900011021644</v>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
@@ -10684,15 +10996,21 @@
       <c r="AK143" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="inlineStr">
-        <is>
-          <t>102900011030622</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>142</v>
+      </c>
+      <c r="C144" t="n">
+        <v>142</v>
+      </c>
+      <c r="D144" t="n">
+        <v>142</v>
+      </c>
+      <c r="E144" t="n">
+        <v>102900011030622</v>
+      </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
@@ -10729,15 +11047,21 @@
       <c r="AK144" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="inlineStr">
-        <is>
-          <t>102900011030561</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>143</v>
+      </c>
+      <c r="C145" t="n">
+        <v>143</v>
+      </c>
+      <c r="D145" t="n">
+        <v>143</v>
+      </c>
+      <c r="E145" t="n">
+        <v>102900011030561</v>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
@@ -10776,15 +11100,21 @@
       <c r="AK145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="inlineStr">
-        <is>
-          <t>102900011030615</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>144</v>
+      </c>
+      <c r="C146" t="n">
+        <v>144</v>
+      </c>
+      <c r="D146" t="n">
+        <v>144</v>
+      </c>
+      <c r="E146" t="n">
+        <v>102900011030615</v>
+      </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
@@ -10823,15 +11153,21 @@
       <c r="AK146" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>102900011030608</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>145</v>
+      </c>
+      <c r="C147" t="n">
+        <v>145</v>
+      </c>
+      <c r="D147" t="n">
+        <v>145</v>
+      </c>
+      <c r="E147" t="n">
+        <v>102900011030608</v>
+      </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
@@ -10888,15 +11224,21 @@
       <c r="AK147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="inlineStr">
-        <is>
-          <t>102900011030639</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr"/>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>146</v>
+      </c>
+      <c r="C148" t="n">
+        <v>146</v>
+      </c>
+      <c r="D148" t="n">
+        <v>146</v>
+      </c>
+      <c r="E148" t="n">
+        <v>102900011030639</v>
+      </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
@@ -10933,15 +11275,21 @@
       <c r="AK148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="inlineStr">
-        <is>
-          <t>102900011031599</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>147</v>
+      </c>
+      <c r="C149" t="n">
+        <v>147</v>
+      </c>
+      <c r="D149" t="n">
+        <v>147</v>
+      </c>
+      <c r="E149" t="n">
+        <v>102900011031599</v>
+      </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
@@ -10980,15 +11328,21 @@
       <c r="AK149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>102900011031582</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>148</v>
+      </c>
+      <c r="C150" t="n">
+        <v>148</v>
+      </c>
+      <c r="D150" t="n">
+        <v>148</v>
+      </c>
+      <c r="E150" t="n">
+        <v>102900011031582</v>
+      </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
@@ -11043,15 +11397,21 @@
       <c r="AK150" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="inlineStr">
-        <is>
-          <t>102900011031759</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>149</v>
+      </c>
+      <c r="C151" t="n">
+        <v>149</v>
+      </c>
+      <c r="D151" t="n">
+        <v>149</v>
+      </c>
+      <c r="E151" t="n">
+        <v>102900011031759</v>
+      </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
@@ -11090,15 +11450,21 @@
       <c r="AK151" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="inlineStr">
-        <is>
-          <t>106971533455008</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr"/>
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>150</v>
+      </c>
+      <c r="C152" t="n">
+        <v>150</v>
+      </c>
+      <c r="D152" t="n">
+        <v>150</v>
+      </c>
+      <c r="E152" t="n">
+        <v>106971533455008</v>
+      </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
@@ -11157,15 +11523,21 @@
       <c r="AK152" t="inlineStr"/>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>106957634300058</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>151</v>
+      </c>
+      <c r="C153" t="n">
+        <v>151</v>
+      </c>
+      <c r="D153" t="n">
+        <v>151</v>
+      </c>
+      <c r="E153" t="n">
+        <v>106957634300058</v>
+      </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
@@ -11206,15 +11578,21 @@
       <c r="AK153" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>106957634300010</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>152</v>
+      </c>
+      <c r="C154" t="n">
+        <v>152</v>
+      </c>
+      <c r="D154" t="n">
+        <v>152</v>
+      </c>
+      <c r="E154" t="n">
+        <v>106957634300010</v>
+      </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
@@ -11255,15 +11633,21 @@
       <c r="AK154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="inlineStr">
-        <is>
-          <t>102900011031742</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr"/>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>153</v>
+      </c>
+      <c r="C155" t="n">
+        <v>153</v>
+      </c>
+      <c r="D155" t="n">
+        <v>153</v>
+      </c>
+      <c r="E155" t="n">
+        <v>102900011031742</v>
+      </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
@@ -11300,15 +11684,21 @@
       <c r="AK155" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>106949711300259</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>154</v>
+      </c>
+      <c r="C156" t="n">
+        <v>154</v>
+      </c>
+      <c r="D156" t="n">
+        <v>154</v>
+      </c>
+      <c r="E156" t="n">
+        <v>106949711300259</v>
+      </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
@@ -11375,15 +11765,21 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="inlineStr">
-        <is>
-          <t>102900011031926</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr"/>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>155</v>
+      </c>
+      <c r="C157" t="n">
+        <v>155</v>
+      </c>
+      <c r="D157" t="n">
+        <v>155</v>
+      </c>
+      <c r="E157" t="n">
+        <v>102900011031926</v>
+      </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
@@ -11440,15 +11836,21 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>102900011031735</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>156</v>
+      </c>
+      <c r="C158" t="n">
+        <v>156</v>
+      </c>
+      <c r="D158" t="n">
+        <v>156</v>
+      </c>
+      <c r="E158" t="n">
+        <v>102900011031735</v>
+      </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
@@ -11487,15 +11889,21 @@
       <c r="AK158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>102900011032022</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>157</v>
+      </c>
+      <c r="C159" t="n">
+        <v>157</v>
+      </c>
+      <c r="D159" t="n">
+        <v>157</v>
+      </c>
+      <c r="E159" t="n">
+        <v>102900011032022</v>
+      </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
@@ -11566,15 +11974,21 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>102900011032282</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>158</v>
+      </c>
+      <c r="C160" t="n">
+        <v>158</v>
+      </c>
+      <c r="D160" t="n">
+        <v>158</v>
+      </c>
+      <c r="E160" t="n">
+        <v>102900011032282</v>
+      </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
@@ -11613,15 +12027,21 @@
       <c r="AK160" t="inlineStr"/>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="inlineStr">
-        <is>
-          <t>102900011031995</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>159</v>
+      </c>
+      <c r="C161" t="n">
+        <v>159</v>
+      </c>
+      <c r="D161" t="n">
+        <v>159</v>
+      </c>
+      <c r="E161" t="n">
+        <v>102900011031995</v>
+      </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
@@ -11670,15 +12090,21 @@
       <c r="AK161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>102900011029305</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>160</v>
+      </c>
+      <c r="C162" t="n">
+        <v>160</v>
+      </c>
+      <c r="D162" t="n">
+        <v>160</v>
+      </c>
+      <c r="E162" t="n">
+        <v>102900011029305</v>
+      </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
@@ -11719,15 +12145,21 @@
       <c r="AK162" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="inlineStr">
-        <is>
-          <t>102900011009772</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>161</v>
+      </c>
+      <c r="C163" t="n">
+        <v>161</v>
+      </c>
+      <c r="D163" t="n">
+        <v>161</v>
+      </c>
+      <c r="E163" t="n">
+        <v>102900011009772</v>
+      </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
@@ -11764,15 +12196,21 @@
       <c r="AK163" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>102900011032237</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>162</v>
+      </c>
+      <c r="C164" t="n">
+        <v>162</v>
+      </c>
+      <c r="D164" t="n">
+        <v>162</v>
+      </c>
+      <c r="E164" t="n">
+        <v>102900011032237</v>
+      </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
@@ -11839,15 +12277,21 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>102900011032206</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>163</v>
+      </c>
+      <c r="C165" t="n">
+        <v>163</v>
+      </c>
+      <c r="D165" t="n">
+        <v>163</v>
+      </c>
+      <c r="E165" t="n">
+        <v>102900011032206</v>
+      </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
@@ -11896,15 +12340,21 @@
       <c r="AK165" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>102900011031841</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>164</v>
+      </c>
+      <c r="C166" t="n">
+        <v>164</v>
+      </c>
+      <c r="D166" t="n">
+        <v>164</v>
+      </c>
+      <c r="E166" t="n">
+        <v>102900011031841</v>
+      </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
@@ -11945,15 +12395,21 @@
       <c r="AK166" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>102900011030912</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>165</v>
+      </c>
+      <c r="C167" t="n">
+        <v>165</v>
+      </c>
+      <c r="D167" t="n">
+        <v>165</v>
+      </c>
+      <c r="E167" t="n">
+        <v>102900011030912</v>
+      </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
@@ -12006,15 +12462,21 @@
       <c r="AK167" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>102900011032213</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>166</v>
+      </c>
+      <c r="C168" t="n">
+        <v>166</v>
+      </c>
+      <c r="D168" t="n">
+        <v>166</v>
+      </c>
+      <c r="E168" t="n">
+        <v>102900011032213</v>
+      </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
@@ -12069,15 +12531,21 @@
       <c r="AK168" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>102900011032244</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>167</v>
+      </c>
+      <c r="C169" t="n">
+        <v>167</v>
+      </c>
+      <c r="D169" t="n">
+        <v>167</v>
+      </c>
+      <c r="E169" t="n">
+        <v>102900011032244</v>
+      </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
@@ -12136,15 +12604,21 @@
       <c r="AK169" t="inlineStr"/>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>102900011032114</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>168</v>
+      </c>
+      <c r="C170" t="n">
+        <v>168</v>
+      </c>
+      <c r="D170" t="n">
+        <v>168</v>
+      </c>
+      <c r="E170" t="n">
+        <v>102900011032114</v>
+      </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
@@ -12181,15 +12655,21 @@
       <c r="AK170" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>102900011032220</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>169</v>
+      </c>
+      <c r="C171" t="n">
+        <v>169</v>
+      </c>
+      <c r="D171" t="n">
+        <v>169</v>
+      </c>
+      <c r="E171" t="n">
+        <v>102900011032220</v>
+      </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
@@ -12236,15 +12716,21 @@
       <c r="AK171" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>102900011032251</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>170</v>
+      </c>
+      <c r="C172" t="n">
+        <v>170</v>
+      </c>
+      <c r="D172" t="n">
+        <v>170</v>
+      </c>
+      <c r="E172" t="n">
+        <v>102900011032251</v>
+      </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
@@ -12309,15 +12795,21 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="inlineStr">
-        <is>
-          <t>102900011032350</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>171</v>
+      </c>
+      <c r="C173" t="n">
+        <v>171</v>
+      </c>
+      <c r="D173" t="n">
+        <v>171</v>
+      </c>
+      <c r="E173" t="n">
+        <v>102900011032350</v>
+      </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
@@ -12364,15 +12856,21 @@
       <c r="AK173" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="inlineStr">
-        <is>
-          <t>102900011032367</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>172</v>
+      </c>
+      <c r="C174" t="n">
+        <v>172</v>
+      </c>
+      <c r="D174" t="n">
+        <v>172</v>
+      </c>
+      <c r="E174" t="n">
+        <v>102900011032367</v>
+      </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
@@ -12431,15 +12929,21 @@
       <c r="AK174" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="inlineStr">
-        <is>
-          <t>102900011032176</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr"/>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>173</v>
+      </c>
+      <c r="C175" t="n">
+        <v>173</v>
+      </c>
+      <c r="D175" t="n">
+        <v>173</v>
+      </c>
+      <c r="E175" t="n">
+        <v>102900011032176</v>
+      </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
@@ -12484,15 +12988,21 @@
       <c r="AK175" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="inlineStr">
-        <is>
-          <t>102900011015384</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>174</v>
+      </c>
+      <c r="C176" t="n">
+        <v>174</v>
+      </c>
+      <c r="D176" t="n">
+        <v>174</v>
+      </c>
+      <c r="E176" t="n">
+        <v>102900011015384</v>
+      </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
@@ -12531,15 +13041,21 @@
       <c r="AK176" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>102900011032343</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr"/>
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>175</v>
+      </c>
+      <c r="C177" t="n">
+        <v>175</v>
+      </c>
+      <c r="D177" t="n">
+        <v>175</v>
+      </c>
+      <c r="E177" t="n">
+        <v>102900011032343</v>
+      </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
@@ -12602,15 +13118,21 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>102900011032640</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>176</v>
+      </c>
+      <c r="C178" t="n">
+        <v>176</v>
+      </c>
+      <c r="D178" t="n">
+        <v>176</v>
+      </c>
+      <c r="E178" t="n">
+        <v>102900011032640</v>
+      </c>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
@@ -12649,15 +13171,21 @@
       <c r="AK178" t="inlineStr"/>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="inlineStr">
-        <is>
-          <t>102900011032787</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr"/>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr"/>
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>177</v>
+      </c>
+      <c r="C179" t="n">
+        <v>177</v>
+      </c>
+      <c r="D179" t="n">
+        <v>177</v>
+      </c>
+      <c r="E179" t="n">
+        <v>102900011032787</v>
+      </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
@@ -12704,15 +13232,21 @@
       <c r="AK179" t="inlineStr"/>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="inlineStr">
-        <is>
-          <t>102900011032633</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>178</v>
+      </c>
+      <c r="C180" t="n">
+        <v>178</v>
+      </c>
+      <c r="D180" t="n">
+        <v>178</v>
+      </c>
+      <c r="E180" t="n">
+        <v>102900011032633</v>
+      </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
@@ -12751,15 +13285,21 @@
       <c r="AK180" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="inlineStr">
-        <is>
-          <t>102900011032626</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr"/>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>179</v>
+      </c>
+      <c r="C181" t="n">
+        <v>179</v>
+      </c>
+      <c r="D181" t="n">
+        <v>179</v>
+      </c>
+      <c r="E181" t="n">
+        <v>102900011032626</v>
+      </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
@@ -12800,15 +13340,21 @@
       <c r="AK181" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="inlineStr">
-        <is>
-          <t>102900011032589</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>180</v>
+      </c>
+      <c r="C182" t="n">
+        <v>180</v>
+      </c>
+      <c r="D182" t="n">
+        <v>180</v>
+      </c>
+      <c r="E182" t="n">
+        <v>102900011032589</v>
+      </c>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
@@ -12847,15 +13393,21 @@
       <c r="AK182" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>102900011032619</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>181</v>
+      </c>
+      <c r="C183" t="n">
+        <v>181</v>
+      </c>
+      <c r="D183" t="n">
+        <v>181</v>
+      </c>
+      <c r="E183" t="n">
+        <v>102900011032619</v>
+      </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
@@ -12902,15 +13454,21 @@
       <c r="AK183" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>102900011032732</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>182</v>
+      </c>
+      <c r="C184" t="n">
+        <v>182</v>
+      </c>
+      <c r="D184" t="n">
+        <v>182</v>
+      </c>
+      <c r="E184" t="n">
+        <v>102900011032732</v>
+      </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
@@ -12967,15 +13525,21 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>102900011032848</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>183</v>
+      </c>
+      <c r="C185" t="n">
+        <v>183</v>
+      </c>
+      <c r="D185" t="n">
+        <v>183</v>
+      </c>
+      <c r="E185" t="n">
+        <v>102900011032848</v>
+      </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
@@ -13038,15 +13602,21 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="inlineStr">
-        <is>
-          <t>102900011033081</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr"/>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>184</v>
+      </c>
+      <c r="C186" t="n">
+        <v>184</v>
+      </c>
+      <c r="D186" t="n">
+        <v>184</v>
+      </c>
+      <c r="E186" t="n">
+        <v>102900011033081</v>
+      </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
@@ -13087,15 +13657,21 @@
       <c r="AK186" t="inlineStr"/>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="inlineStr">
-        <is>
-          <t>102900011033234</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr"/>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>185</v>
+      </c>
+      <c r="C187" t="n">
+        <v>185</v>
+      </c>
+      <c r="D187" t="n">
+        <v>185</v>
+      </c>
+      <c r="E187" t="n">
+        <v>102900011033234</v>
+      </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
@@ -13140,15 +13716,21 @@
       <c r="AK187" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="inlineStr">
-        <is>
-          <t>102900011033241</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr"/>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>186</v>
+      </c>
+      <c r="C188" t="n">
+        <v>186</v>
+      </c>
+      <c r="D188" t="n">
+        <v>186</v>
+      </c>
+      <c r="E188" t="n">
+        <v>102900011033241</v>
+      </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
@@ -13189,15 +13771,21 @@
       <c r="AK188" t="inlineStr"/>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="inlineStr">
-        <is>
-          <t>102900011033562</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr"/>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>187</v>
+      </c>
+      <c r="C189" t="n">
+        <v>187</v>
+      </c>
+      <c r="D189" t="n">
+        <v>187</v>
+      </c>
+      <c r="E189" t="n">
+        <v>102900011033562</v>
+      </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
@@ -13234,15 +13822,21 @@
       <c r="AK189" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="inlineStr">
-        <is>
-          <t>102900011033586</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr"/>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>188</v>
+      </c>
+      <c r="C190" t="n">
+        <v>188</v>
+      </c>
+      <c r="D190" t="n">
+        <v>188</v>
+      </c>
+      <c r="E190" t="n">
+        <v>102900011033586</v>
+      </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
@@ -13279,15 +13873,21 @@
       <c r="AK190" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="inlineStr">
-        <is>
-          <t>102900011033531</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>189</v>
+      </c>
+      <c r="C191" t="n">
+        <v>189</v>
+      </c>
+      <c r="D191" t="n">
+        <v>189</v>
+      </c>
+      <c r="E191" t="n">
+        <v>102900011033531</v>
+      </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
@@ -13324,15 +13924,21 @@
       <c r="AK191" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="inlineStr">
-        <is>
-          <t>102900011033968</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>190</v>
+      </c>
+      <c r="C192" t="n">
+        <v>190</v>
+      </c>
+      <c r="D192" t="n">
+        <v>190</v>
+      </c>
+      <c r="E192" t="n">
+        <v>102900011033968</v>
+      </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
@@ -13369,15 +13975,21 @@
       <c r="AK192" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="inlineStr">
-        <is>
-          <t>102900011033906</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>191</v>
+      </c>
+      <c r="C193" t="n">
+        <v>191</v>
+      </c>
+      <c r="D193" t="n">
+        <v>191</v>
+      </c>
+      <c r="E193" t="n">
+        <v>102900011033906</v>
+      </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
@@ -13432,15 +14044,21 @@
       <c r="AK193" t="inlineStr"/>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="inlineStr">
-        <is>
-          <t>102900011034200</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>192</v>
+      </c>
+      <c r="C194" t="n">
+        <v>192</v>
+      </c>
+      <c r="D194" t="n">
+        <v>192</v>
+      </c>
+      <c r="E194" t="n">
+        <v>102900011034200</v>
+      </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
@@ -13487,15 +14105,21 @@
       <c r="AK194" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="inlineStr">
-        <is>
-          <t>102900011033173</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr"/>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>193</v>
+      </c>
+      <c r="C195" t="n">
+        <v>193</v>
+      </c>
+      <c r="D195" t="n">
+        <v>193</v>
+      </c>
+      <c r="E195" t="n">
+        <v>102900011033173</v>
+      </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
@@ -13536,15 +14160,21 @@
       <c r="AK195" t="inlineStr"/>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="inlineStr">
-        <is>
-          <t>102900011034231</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>194</v>
+      </c>
+      <c r="C196" t="n">
+        <v>194</v>
+      </c>
+      <c r="D196" t="n">
+        <v>194</v>
+      </c>
+      <c r="E196" t="n">
+        <v>102900011034231</v>
+      </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
@@ -13603,15 +14233,21 @@
       <c r="AK196" t="inlineStr"/>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="inlineStr">
-        <is>
-          <t>102900011033937</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>195</v>
+      </c>
+      <c r="C197" t="n">
+        <v>195</v>
+      </c>
+      <c r="D197" t="n">
+        <v>195</v>
+      </c>
+      <c r="E197" t="n">
+        <v>102900011033937</v>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
@@ -13660,15 +14296,21 @@
       <c r="AK197" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="inlineStr">
-        <is>
-          <t>102900011033920</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>196</v>
+      </c>
+      <c r="C198" t="n">
+        <v>196</v>
+      </c>
+      <c r="D198" t="n">
+        <v>196</v>
+      </c>
+      <c r="E198" t="n">
+        <v>102900011033920</v>
+      </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
@@ -13727,15 +14369,21 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="inlineStr">
-        <is>
-          <t>102900011034224</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr"/>
-      <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>197</v>
+      </c>
+      <c r="C199" t="n">
+        <v>197</v>
+      </c>
+      <c r="D199" t="n">
+        <v>197</v>
+      </c>
+      <c r="E199" t="n">
+        <v>102900011034224</v>
+      </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
@@ -13788,15 +14436,21 @@
       <c r="AK199" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="inlineStr">
-        <is>
-          <t>102900011034217</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr"/>
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>198</v>
+      </c>
+      <c r="C200" t="n">
+        <v>198</v>
+      </c>
+      <c r="D200" t="n">
+        <v>198</v>
+      </c>
+      <c r="E200" t="n">
+        <v>102900011034217</v>
+      </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
@@ -13839,15 +14493,21 @@
       <c r="AK200" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="inlineStr">
-        <is>
-          <t>102900011033944</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr"/>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr"/>
-      <c r="E201" t="inlineStr"/>
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>199</v>
+      </c>
+      <c r="C201" t="n">
+        <v>199</v>
+      </c>
+      <c r="D201" t="n">
+        <v>199</v>
+      </c>
+      <c r="E201" t="n">
+        <v>102900011033944</v>
+      </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
@@ -13906,15 +14566,21 @@
       <c r="AK201" t="inlineStr"/>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="inlineStr">
-        <is>
-          <t>102900011033913</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr"/>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr"/>
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>200</v>
+      </c>
+      <c r="C202" t="n">
+        <v>200</v>
+      </c>
+      <c r="D202" t="n">
+        <v>200</v>
+      </c>
+      <c r="E202" t="n">
+        <v>102900011033913</v>
+      </c>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
@@ -13951,15 +14617,21 @@
       <c r="AK202" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="inlineStr">
-        <is>
-          <t>106931885000356</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr"/>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr"/>
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>201</v>
+      </c>
+      <c r="C203" t="n">
+        <v>201</v>
+      </c>
+      <c r="D203" t="n">
+        <v>201</v>
+      </c>
+      <c r="E203" t="n">
+        <v>106931885000356</v>
+      </c>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
@@ -13996,15 +14668,21 @@
       <c r="AK203" t="inlineStr"/>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="inlineStr">
-        <is>
-          <t>106971563780002</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr"/>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr"/>
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>202</v>
+      </c>
+      <c r="C204" t="n">
+        <v>202</v>
+      </c>
+      <c r="D204" t="n">
+        <v>202</v>
+      </c>
+      <c r="E204" t="n">
+        <v>106971563780002</v>
+      </c>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
@@ -14041,15 +14719,21 @@
       <c r="AK204" t="inlineStr"/>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="inlineStr">
-        <is>
-          <t>102900011034316</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr"/>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr"/>
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>203</v>
+      </c>
+      <c r="C205" t="n">
+        <v>203</v>
+      </c>
+      <c r="D205" t="n">
+        <v>203</v>
+      </c>
+      <c r="E205" t="n">
+        <v>102900011034316</v>
+      </c>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
@@ -14086,15 +14770,21 @@
       <c r="AK205" t="inlineStr"/>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="inlineStr">
-        <is>
-          <t>102900011034323</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr"/>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr"/>
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>204</v>
+      </c>
+      <c r="C206" t="n">
+        <v>204</v>
+      </c>
+      <c r="D206" t="n">
+        <v>204</v>
+      </c>
+      <c r="E206" t="n">
+        <v>102900011034323</v>
+      </c>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
@@ -14133,15 +14823,21 @@
       <c r="AK206" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="inlineStr">
-        <is>
-          <t>102900011034330</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr"/>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>205</v>
+      </c>
+      <c r="C207" t="n">
+        <v>205</v>
+      </c>
+      <c r="D207" t="n">
+        <v>205</v>
+      </c>
+      <c r="E207" t="n">
+        <v>102900011034330</v>
+      </c>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
@@ -14202,15 +14898,21 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="inlineStr">
-        <is>
-          <t>102900011034354</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr"/>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>206</v>
+      </c>
+      <c r="C208" t="n">
+        <v>206</v>
+      </c>
+      <c r="D208" t="n">
+        <v>206</v>
+      </c>
+      <c r="E208" t="n">
+        <v>102900011034354</v>
+      </c>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
@@ -14249,15 +14951,21 @@
       <c r="AK208" t="inlineStr"/>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="inlineStr">
-        <is>
-          <t>102900011026618</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr"/>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>207</v>
+      </c>
+      <c r="C209" t="n">
+        <v>207</v>
+      </c>
+      <c r="D209" t="n">
+        <v>207</v>
+      </c>
+      <c r="E209" t="n">
+        <v>102900011026618</v>
+      </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
@@ -14296,15 +15004,21 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="inlineStr">
-        <is>
-          <t>102900011029299</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr"/>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>208</v>
+      </c>
+      <c r="C210" t="n">
+        <v>208</v>
+      </c>
+      <c r="D210" t="n">
+        <v>208</v>
+      </c>
+      <c r="E210" t="n">
+        <v>102900011029299</v>
+      </c>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
@@ -14343,15 +15057,21 @@
       <c r="AK210" t="inlineStr"/>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="inlineStr">
-        <is>
-          <t>102900011034262</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>209</v>
+      </c>
+      <c r="C211" t="n">
+        <v>209</v>
+      </c>
+      <c r="D211" t="n">
+        <v>209</v>
+      </c>
+      <c r="E211" t="n">
+        <v>102900011034262</v>
+      </c>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
@@ -14394,15 +15114,21 @@
       <c r="AK211" t="inlineStr"/>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="inlineStr">
-        <is>
-          <t>102900011034026</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
-      <c r="E212" t="inlineStr"/>
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>210</v>
+      </c>
+      <c r="C212" t="n">
+        <v>210</v>
+      </c>
+      <c r="D212" t="n">
+        <v>210</v>
+      </c>
+      <c r="E212" t="n">
+        <v>102900011034026</v>
+      </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
@@ -14463,15 +15189,21 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="inlineStr">
-        <is>
-          <t>102900011030929</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr"/>
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>211</v>
+      </c>
+      <c r="C213" t="n">
+        <v>211</v>
+      </c>
+      <c r="D213" t="n">
+        <v>211</v>
+      </c>
+      <c r="E213" t="n">
+        <v>102900011030929</v>
+      </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
@@ -14524,15 +15256,21 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="inlineStr">
-        <is>
-          <t>106973990980123</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr"/>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr"/>
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>212</v>
+      </c>
+      <c r="C214" t="n">
+        <v>212</v>
+      </c>
+      <c r="D214" t="n">
+        <v>212</v>
+      </c>
+      <c r="E214" t="n">
+        <v>106973990980123</v>
+      </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
@@ -14569,15 +15307,21 @@
       <c r="AK214" t="inlineStr"/>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="inlineStr">
-        <is>
-          <t>102900011034569</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr"/>
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>213</v>
+      </c>
+      <c r="C215" t="n">
+        <v>213</v>
+      </c>
+      <c r="D215" t="n">
+        <v>213</v>
+      </c>
+      <c r="E215" t="n">
+        <v>102900011034569</v>
+      </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
@@ -14618,15 +15362,21 @@
       <c r="AK215" t="inlineStr"/>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="inlineStr">
-        <is>
-          <t>102900011034439</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr"/>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>214</v>
+      </c>
+      <c r="C216" t="n">
+        <v>214</v>
+      </c>
+      <c r="D216" t="n">
+        <v>214</v>
+      </c>
+      <c r="E216" t="n">
+        <v>102900011034439</v>
+      </c>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
@@ -14685,15 +15435,21 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="inlineStr">
-        <is>
-          <t>102900011033975</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr"/>
-      <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr"/>
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>215</v>
+      </c>
+      <c r="C217" t="n">
+        <v>215</v>
+      </c>
+      <c r="D217" t="n">
+        <v>215</v>
+      </c>
+      <c r="E217" t="n">
+        <v>102900011033975</v>
+      </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
@@ -14742,15 +15498,21 @@
       <c r="AK217" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="inlineStr">
-        <is>
-          <t>102900011033982</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr"/>
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>216</v>
+      </c>
+      <c r="C218" t="n">
+        <v>216</v>
+      </c>
+      <c r="D218" t="n">
+        <v>216</v>
+      </c>
+      <c r="E218" t="n">
+        <v>102900011033982</v>
+      </c>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
@@ -14795,15 +15557,21 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="inlineStr">
-        <is>
-          <t>102900011035078</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr"/>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>217</v>
+      </c>
+      <c r="C219" t="n">
+        <v>217</v>
+      </c>
+      <c r="D219" t="n">
+        <v>217</v>
+      </c>
+      <c r="E219" t="n">
+        <v>102900011035078</v>
+      </c>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
@@ -14860,15 +15628,21 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="inlineStr">
-        <is>
-          <t>102900011031858</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr"/>
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>218</v>
+      </c>
+      <c r="C220" t="n">
+        <v>218</v>
+      </c>
+      <c r="D220" t="n">
+        <v>218</v>
+      </c>
+      <c r="E220" t="n">
+        <v>102900011031858</v>
+      </c>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
@@ -14905,15 +15679,21 @@
       <c r="AK220" t="inlineStr"/>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="inlineStr">
-        <is>
-          <t>102900011011058</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>219</v>
+      </c>
+      <c r="C221" t="n">
+        <v>219</v>
+      </c>
+      <c r="D221" t="n">
+        <v>219</v>
+      </c>
+      <c r="E221" t="n">
+        <v>102900011011058</v>
+      </c>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
@@ -14952,15 +15732,21 @@
       <c r="AK221" t="inlineStr"/>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="inlineStr">
-        <is>
-          <t>102900011030905</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>220</v>
+      </c>
+      <c r="C222" t="n">
+        <v>220</v>
+      </c>
+      <c r="D222" t="n">
+        <v>220</v>
+      </c>
+      <c r="E222" t="n">
+        <v>102900011030905</v>
+      </c>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
@@ -15013,15 +15799,21 @@
       <c r="AK222" t="inlineStr"/>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="inlineStr">
-        <is>
-          <t>102900011033999</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr"/>
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>221</v>
+      </c>
+      <c r="C223" t="n">
+        <v>221</v>
+      </c>
+      <c r="D223" t="n">
+        <v>221</v>
+      </c>
+      <c r="E223" t="n">
+        <v>102900011033999</v>
+      </c>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
@@ -15058,15 +15850,21 @@
       <c r="AK223" t="inlineStr"/>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="inlineStr">
-        <is>
-          <t>102900011035481</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr"/>
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>222</v>
+      </c>
+      <c r="C224" t="n">
+        <v>222</v>
+      </c>
+      <c r="D224" t="n">
+        <v>222</v>
+      </c>
+      <c r="E224" t="n">
+        <v>102900011035481</v>
+      </c>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
@@ -15105,15 +15903,21 @@
       <c r="AK224" t="inlineStr"/>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="inlineStr">
-        <is>
-          <t>102900011035511</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr"/>
-      <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr"/>
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>223</v>
+      </c>
+      <c r="C225" t="n">
+        <v>223</v>
+      </c>
+      <c r="D225" t="n">
+        <v>223</v>
+      </c>
+      <c r="E225" t="n">
+        <v>102900011035511</v>
+      </c>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
@@ -15158,15 +15962,21 @@
       <c r="AK225" t="inlineStr"/>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="inlineStr">
-        <is>
-          <t>102900005115625</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr"/>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>224</v>
+      </c>
+      <c r="C226" t="n">
+        <v>224</v>
+      </c>
+      <c r="D226" t="n">
+        <v>224</v>
+      </c>
+      <c r="E226" t="n">
+        <v>102900005115625</v>
+      </c>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
@@ -15209,15 +16019,21 @@
       <c r="AK226" t="inlineStr"/>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="inlineStr">
-        <is>
-          <t>102900011035788</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr"/>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>225</v>
+      </c>
+      <c r="C227" t="n">
+        <v>225</v>
+      </c>
+      <c r="D227" t="n">
+        <v>225</v>
+      </c>
+      <c r="E227" t="n">
+        <v>102900011035788</v>
+      </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
@@ -15262,15 +16078,21 @@
       <c r="AK227" t="inlineStr"/>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="inlineStr">
-        <is>
-          <t>102900011035771</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr"/>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr"/>
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>226</v>
+      </c>
+      <c r="C228" t="n">
+        <v>226</v>
+      </c>
+      <c r="D228" t="n">
+        <v>226</v>
+      </c>
+      <c r="E228" t="n">
+        <v>102900011035771</v>
+      </c>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
@@ -15313,15 +16135,21 @@
       <c r="AK228" t="inlineStr"/>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="inlineStr">
-        <is>
-          <t>102900011035764</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr"/>
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>227</v>
+      </c>
+      <c r="C229" t="n">
+        <v>227</v>
+      </c>
+      <c r="D229" t="n">
+        <v>227</v>
+      </c>
+      <c r="E229" t="n">
+        <v>102900011035764</v>
+      </c>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
@@ -15366,15 +16194,21 @@
       <c r="AK229" t="inlineStr"/>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="inlineStr">
-        <is>
-          <t>102900011012482</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr"/>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr"/>
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>228</v>
+      </c>
+      <c r="C230" t="n">
+        <v>228</v>
+      </c>
+      <c r="D230" t="n">
+        <v>228</v>
+      </c>
+      <c r="E230" t="n">
+        <v>102900011012482</v>
+      </c>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
@@ -15417,15 +16251,21 @@
       <c r="AK230" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="inlineStr">
-        <is>
-          <t>102900011035962</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr"/>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr"/>
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>229</v>
+      </c>
+      <c r="C231" t="n">
+        <v>229</v>
+      </c>
+      <c r="D231" t="n">
+        <v>229</v>
+      </c>
+      <c r="E231" t="n">
+        <v>102900011035962</v>
+      </c>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr"/>
@@ -15462,15 +16302,21 @@
       <c r="AK231" t="inlineStr"/>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="inlineStr">
-        <is>
-          <t>102900011031216</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr"/>
-      <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr"/>
-      <c r="E232" t="inlineStr"/>
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>230</v>
+      </c>
+      <c r="C232" t="n">
+        <v>230</v>
+      </c>
+      <c r="D232" t="n">
+        <v>230</v>
+      </c>
+      <c r="E232" t="n">
+        <v>102900011031216</v>
+      </c>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
@@ -15517,15 +16363,21 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="inlineStr">
-        <is>
-          <t>106930274620090</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr"/>
-      <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr"/>
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>231</v>
+      </c>
+      <c r="C233" t="n">
+        <v>231</v>
+      </c>
+      <c r="D233" t="n">
+        <v>231</v>
+      </c>
+      <c r="E233" t="n">
+        <v>106930274620090</v>
+      </c>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
@@ -15566,15 +16418,21 @@
       <c r="AK233" t="inlineStr"/>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="inlineStr">
-        <is>
-          <t>102900011036068</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr"/>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr"/>
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>232</v>
+      </c>
+      <c r="C234" t="n">
+        <v>232</v>
+      </c>
+      <c r="D234" t="n">
+        <v>232</v>
+      </c>
+      <c r="E234" t="n">
+        <v>102900011036068</v>
+      </c>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
@@ -15613,15 +16471,21 @@
       <c r="AK234" t="inlineStr"/>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="inlineStr">
-        <is>
-          <t>102900011034705</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr"/>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
-      <c r="E235" t="inlineStr"/>
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>233</v>
+      </c>
+      <c r="C235" t="n">
+        <v>233</v>
+      </c>
+      <c r="D235" t="n">
+        <v>233</v>
+      </c>
+      <c r="E235" t="n">
+        <v>102900011034705</v>
+      </c>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr"/>
@@ -15658,15 +16522,21 @@
       <c r="AK235" t="inlineStr"/>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="inlineStr">
-        <is>
-          <t>102900011030400</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr"/>
-      <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr"/>
-      <c r="E236" t="inlineStr"/>
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>234</v>
+      </c>
+      <c r="C236" t="n">
+        <v>234</v>
+      </c>
+      <c r="D236" t="n">
+        <v>234</v>
+      </c>
+      <c r="E236" t="n">
+        <v>102900011030400</v>
+      </c>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
@@ -15703,15 +16573,21 @@
       <c r="AK236" t="inlineStr"/>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="inlineStr">
-        <is>
-          <t>102900011030417</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr"/>
-      <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr"/>
-      <c r="E237" t="inlineStr"/>
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>235</v>
+      </c>
+      <c r="C237" t="n">
+        <v>235</v>
+      </c>
+      <c r="D237" t="n">
+        <v>235</v>
+      </c>
+      <c r="E237" t="n">
+        <v>102900011030417</v>
+      </c>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
@@ -15748,15 +16624,21 @@
       <c r="AK237" t="inlineStr"/>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="inlineStr">
-        <is>
-          <t>102900011035740</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr"/>
-      <c r="C238" t="inlineStr"/>
-      <c r="D238" t="inlineStr"/>
-      <c r="E238" t="inlineStr"/>
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>236</v>
+      </c>
+      <c r="C238" t="n">
+        <v>236</v>
+      </c>
+      <c r="D238" t="n">
+        <v>236</v>
+      </c>
+      <c r="E238" t="n">
+        <v>102900011035740</v>
+      </c>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
@@ -15803,15 +16685,21 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="inlineStr">
-        <is>
-          <t>102900011034538</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr"/>
-      <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr"/>
-      <c r="E239" t="inlineStr"/>
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>237</v>
+      </c>
+      <c r="C239" t="n">
+        <v>237</v>
+      </c>
+      <c r="D239" t="n">
+        <v>237</v>
+      </c>
+      <c r="E239" t="n">
+        <v>102900011034538</v>
+      </c>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr"/>
@@ -15850,15 +16738,21 @@
       <c r="AK239" t="inlineStr"/>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="inlineStr">
-        <is>
-          <t>102900011023976</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr"/>
-      <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr"/>
-      <c r="E240" t="inlineStr"/>
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>238</v>
+      </c>
+      <c r="C240" t="n">
+        <v>238</v>
+      </c>
+      <c r="D240" t="n">
+        <v>238</v>
+      </c>
+      <c r="E240" t="n">
+        <v>102900011023976</v>
+      </c>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr"/>
@@ -15895,15 +16789,21 @@
       <c r="AK240" t="inlineStr"/>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="inlineStr">
-        <is>
-          <t>102900011036266</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr"/>
-      <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr"/>
-      <c r="E241" t="inlineStr"/>
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>239</v>
+      </c>
+      <c r="C241" t="n">
+        <v>239</v>
+      </c>
+      <c r="D241" t="n">
+        <v>239</v>
+      </c>
+      <c r="E241" t="n">
+        <v>102900011036266</v>
+      </c>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr"/>
@@ -15940,15 +16840,21 @@
       <c r="AK241" t="inlineStr"/>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="inlineStr">
-        <is>
-          <t>102900011032480</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr"/>
-      <c r="C242" t="inlineStr"/>
-      <c r="D242" t="inlineStr"/>
-      <c r="E242" t="inlineStr"/>
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>240</v>
+      </c>
+      <c r="C242" t="n">
+        <v>240</v>
+      </c>
+      <c r="D242" t="n">
+        <v>240</v>
+      </c>
+      <c r="E242" t="n">
+        <v>102900011032480</v>
+      </c>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr"/>
@@ -15987,15 +16893,21 @@
       <c r="AK242" t="inlineStr"/>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="inlineStr">
-        <is>
-          <t>102900011036242</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr"/>
-      <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr"/>
-      <c r="E243" t="inlineStr"/>
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>241</v>
+      </c>
+      <c r="C243" t="n">
+        <v>241</v>
+      </c>
+      <c r="D243" t="n">
+        <v>241</v>
+      </c>
+      <c r="E243" t="n">
+        <v>102900011036242</v>
+      </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr"/>
@@ -16036,15 +16948,21 @@
       <c r="AK243" t="inlineStr"/>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="inlineStr">
-        <is>
-          <t>102900011035849</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr"/>
-      <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr"/>
-      <c r="E244" t="inlineStr"/>
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>242</v>
+      </c>
+      <c r="C244" t="n">
+        <v>242</v>
+      </c>
+      <c r="D244" t="n">
+        <v>242</v>
+      </c>
+      <c r="E244" t="n">
+        <v>102900011035849</v>
+      </c>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
@@ -16083,15 +17001,21 @@
       <c r="AK244" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="inlineStr">
-        <is>
-          <t>102900011021675</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr"/>
-      <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr"/>
-      <c r="E245" t="inlineStr"/>
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>243</v>
+      </c>
+      <c r="C245" t="n">
+        <v>243</v>
+      </c>
+      <c r="D245" t="n">
+        <v>243</v>
+      </c>
+      <c r="E245" t="n">
+        <v>102900011021675</v>
+      </c>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr"/>
@@ -16128,15 +17052,21 @@
       <c r="AK245" t="inlineStr"/>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="inlineStr">
-        <is>
-          <t>106972776821582</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr"/>
-      <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr"/>
-      <c r="E246" t="inlineStr"/>
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>244</v>
+      </c>
+      <c r="C246" t="n">
+        <v>244</v>
+      </c>
+      <c r="D246" t="n">
+        <v>244</v>
+      </c>
+      <c r="E246" t="n">
+        <v>106972776821582</v>
+      </c>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr"/>
@@ -16175,15 +17105,21 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="inlineStr">
-        <is>
-          <t>102900011036686</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr"/>
-      <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr"/>
-      <c r="E247" t="inlineStr"/>
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>245</v>
+      </c>
+      <c r="C247" t="n">
+        <v>245</v>
+      </c>
+      <c r="D247" t="n">
+        <v>245</v>
+      </c>
+      <c r="E247" t="n">
+        <v>102900011036686</v>
+      </c>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr"/>
